--- a/result/diversity_factor/DF_daily_all_transformers.xlsx
+++ b/result/diversity_factor/DF_daily_all_transformers.xlsx
@@ -454,7 +454,7 @@
         <v>44562</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.4779375600086579</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>44563</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.4837023822757687</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>44564</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.4019698072581573</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         <v>44565</v>
       </c>
       <c r="B5" t="n">
-        <v>0.929631637340838</v>
+        <v>0.3532706709735676</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         <v>44566</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.343987878870236</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>44567</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.3472785067178523</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>44568</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.3650044268107781</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +510,7 @@
         <v>44569</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.4269410443697983</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +518,7 @@
         <v>44570</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0.4834378618798388</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>44571</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.4645739582809748</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>44572</v>
       </c>
       <c r="B12" t="n">
-        <v>0.929631637340838</v>
+        <v>0.4185528596554384</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>44573</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.4257083014321677</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>44574</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.4242718404127137</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>44575</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.4408154131871913</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>44576</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.4742754341001071</v>
       </c>
     </row>
     <row r="17">
@@ -574,7 +574,7 @@
         <v>44577</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0.5073394873247924</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>44578</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.488564670601067</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>44579</v>
       </c>
       <c r="B19" t="n">
-        <v>0.929631637340838</v>
+        <v>0.4364947501431934</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>44580</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.4067417523737842</v>
       </c>
     </row>
     <row r="21">
@@ -606,7 +606,7 @@
         <v>44581</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.4344752804295418</v>
       </c>
     </row>
     <row r="22">
@@ -614,7 +614,7 @@
         <v>44582</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.4261314742907694</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>44583</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.4512095381074627</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>44584</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0.4397864027273112</v>
       </c>
     </row>
     <row r="25">
@@ -638,7 +638,7 @@
         <v>44585</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.4221203878042232</v>
       </c>
     </row>
     <row r="26">
@@ -646,7 +646,7 @@
         <v>44586</v>
       </c>
       <c r="B26" t="n">
-        <v>0.929631637340838</v>
+        <v>0.434414804160669</v>
       </c>
     </row>
     <row r="27">
@@ -654,7 +654,7 @@
         <v>44587</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.4297594674241595</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +662,7 @@
         <v>44588</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.4224324589914792</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>44589</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.4293831211706315</v>
       </c>
     </row>
     <row r="30">
@@ -678,7 +678,7 @@
         <v>44590</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.483474886404345</v>
       </c>
     </row>
     <row r="31">
@@ -686,7 +686,7 @@
         <v>44591</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0.4769472349821866</v>
       </c>
     </row>
     <row r="32">
@@ -694,7 +694,7 @@
         <v>44592</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.5723267988847763</v>
       </c>
     </row>
     <row r="33">
@@ -702,7 +702,7 @@
         <v>44593</v>
       </c>
       <c r="B33" t="n">
-        <v>0.929631637340838</v>
+        <v>0.5284006320771136</v>
       </c>
     </row>
     <row r="34">
@@ -710,7 +710,7 @@
         <v>44594</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.5165328696721861</v>
       </c>
     </row>
     <row r="35">
@@ -718,7 +718,7 @@
         <v>44595</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.4906146616843279</v>
       </c>
     </row>
     <row r="36">
@@ -726,7 +726,7 @@
         <v>44596</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.4669422778594669</v>
       </c>
     </row>
     <row r="37">
@@ -734,7 +734,7 @@
         <v>44597</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.4559924617698463</v>
       </c>
     </row>
     <row r="38">
@@ -742,7 +742,7 @@
         <v>44598</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0.5531338753261179</v>
       </c>
     </row>
     <row r="39">
@@ -750,7 +750,7 @@
         <v>44599</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.5385624096067906</v>
       </c>
     </row>
     <row r="40">
@@ -758,7 +758,7 @@
         <v>44600</v>
       </c>
       <c r="B40" t="n">
-        <v>0.929631637340838</v>
+        <v>0.5843572609014019</v>
       </c>
     </row>
     <row r="41">
@@ -766,7 +766,7 @@
         <v>44601</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.622256170302853</v>
       </c>
     </row>
     <row r="42">
@@ -774,7 +774,7 @@
         <v>44602</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.6229011174113734</v>
       </c>
     </row>
     <row r="43">
@@ -782,7 +782,7 @@
         <v>44603</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.6078759530649176</v>
       </c>
     </row>
     <row r="44">
@@ -790,7 +790,7 @@
         <v>44604</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.6211304989023485</v>
       </c>
     </row>
     <row r="45">
@@ -798,7 +798,7 @@
         <v>44605</v>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0.6597445704639064</v>
       </c>
     </row>
     <row r="46">
@@ -806,7 +806,7 @@
         <v>44606</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.5175385201086624</v>
       </c>
     </row>
     <row r="47">
@@ -814,7 +814,7 @@
         <v>44607</v>
       </c>
       <c r="B47" t="n">
-        <v>0.929631637340838</v>
+        <v>0.5273027648583709</v>
       </c>
     </row>
     <row r="48">
@@ -822,7 +822,7 @@
         <v>44608</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.5313077850136505</v>
       </c>
     </row>
     <row r="49">
@@ -830,7 +830,7 @@
         <v>44609</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.5353911973820387</v>
       </c>
     </row>
     <row r="50">
@@ -838,7 +838,7 @@
         <v>44610</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.5556775444511581</v>
       </c>
     </row>
     <row r="51">
@@ -846,7 +846,7 @@
         <v>44611</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.6765274239237239</v>
       </c>
     </row>
     <row r="52">
@@ -854,7 +854,7 @@
         <v>44612</v>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0.7723756969054157</v>
       </c>
     </row>
     <row r="53">
@@ -862,7 +862,7 @@
         <v>44613</v>
       </c>
       <c r="B53" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.6918444724118298</v>
       </c>
     </row>
     <row r="54">
@@ -870,7 +870,7 @@
         <v>44614</v>
       </c>
       <c r="B54" t="n">
-        <v>0.929631637340838</v>
+        <v>0.7088900645029733</v>
       </c>
     </row>
     <row r="55">
@@ -878,7 +878,7 @@
         <v>44615</v>
       </c>
       <c r="B55" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.642636991471615</v>
       </c>
     </row>
     <row r="56">
@@ -886,7 +886,7 @@
         <v>44616</v>
       </c>
       <c r="B56" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.5763847451679154</v>
       </c>
     </row>
     <row r="57">
@@ -894,7 +894,7 @@
         <v>44617</v>
       </c>
       <c r="B57" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.5088698783203062</v>
       </c>
     </row>
     <row r="58">
@@ -902,7 +902,7 @@
         <v>44618</v>
       </c>
       <c r="B58" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.4923669693987204</v>
       </c>
     </row>
     <row r="59">
@@ -910,7 +910,7 @@
         <v>44619</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0.4317210606030603</v>
       </c>
     </row>
     <row r="60">
@@ -918,7 +918,7 @@
         <v>44620</v>
       </c>
       <c r="B60" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.3643118459644892</v>
       </c>
     </row>
     <row r="61">
@@ -926,7 +926,7 @@
         <v>44621</v>
       </c>
       <c r="B61" t="n">
-        <v>0.929631637340838</v>
+        <v>0.3599629311266117</v>
       </c>
     </row>
     <row r="62">
@@ -934,7 +934,7 @@
         <v>44622</v>
       </c>
       <c r="B62" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.3295826079564167</v>
       </c>
     </row>
     <row r="63">
@@ -942,7 +942,7 @@
         <v>44623</v>
       </c>
       <c r="B63" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.3117656092395207</v>
       </c>
     </row>
     <row r="64">
@@ -950,7 +950,7 @@
         <v>44624</v>
       </c>
       <c r="B64" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.3080017822084066</v>
       </c>
     </row>
     <row r="65">
@@ -958,7 +958,7 @@
         <v>44625</v>
       </c>
       <c r="B65" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.3251782455488599</v>
       </c>
     </row>
     <row r="66">
@@ -966,7 +966,7 @@
         <v>44626</v>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0.3434235153987802</v>
       </c>
     </row>
     <row r="67">
@@ -974,7 +974,7 @@
         <v>44627</v>
       </c>
       <c r="B67" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.2964605009508072</v>
       </c>
     </row>
     <row r="68">
@@ -982,7 +982,7 @@
         <v>44628</v>
       </c>
       <c r="B68" t="n">
-        <v>0.929631637340838</v>
+        <v>0.2887554012117957</v>
       </c>
     </row>
     <row r="69">
@@ -990,7 +990,7 @@
         <v>44629</v>
       </c>
       <c r="B69" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.2877370049960507</v>
       </c>
     </row>
     <row r="70">
@@ -998,7 +998,7 @@
         <v>44630</v>
       </c>
       <c r="B70" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.2904054585357563</v>
       </c>
     </row>
     <row r="71">
@@ -1006,7 +1006,7 @@
         <v>44631</v>
       </c>
       <c r="B71" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.2885036722910449</v>
       </c>
     </row>
     <row r="72">
@@ -1014,7 +1014,7 @@
         <v>44632</v>
       </c>
       <c r="B72" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.303956585168291</v>
       </c>
     </row>
     <row r="73">
@@ -1022,7 +1022,7 @@
         <v>44633</v>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0.3085545160426496</v>
       </c>
     </row>
     <row r="74">
@@ -1030,7 +1030,7 @@
         <v>44634</v>
       </c>
       <c r="B74" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.2948130058824064</v>
       </c>
     </row>
     <row r="75">
@@ -1038,7 +1038,7 @@
         <v>44635</v>
       </c>
       <c r="B75" t="n">
-        <v>0.929631637340838</v>
+        <v>0.2908742434133932</v>
       </c>
     </row>
     <row r="76">
@@ -1046,7 +1046,7 @@
         <v>44636</v>
       </c>
       <c r="B76" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.2959724447917695</v>
       </c>
     </row>
     <row r="77">
@@ -1054,7 +1054,7 @@
         <v>44637</v>
       </c>
       <c r="B77" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.2943501350622696</v>
       </c>
     </row>
     <row r="78">
@@ -1062,7 +1062,7 @@
         <v>44638</v>
       </c>
       <c r="B78" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.2914021210522194</v>
       </c>
     </row>
     <row r="79">
@@ -1070,7 +1070,7 @@
         <v>44639</v>
       </c>
       <c r="B79" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.3107612537092085</v>
       </c>
     </row>
     <row r="80">
@@ -1078,7 +1078,7 @@
         <v>44640</v>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>0.3184128562234282</v>
       </c>
     </row>
     <row r="81">
@@ -1086,7 +1086,7 @@
         <v>44641</v>
       </c>
       <c r="B81" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.3109136687833966</v>
       </c>
     </row>
     <row r="82">
@@ -1094,7 +1094,7 @@
         <v>44642</v>
       </c>
       <c r="B82" t="n">
-        <v>0.929631637340838</v>
+        <v>0.307463376103787</v>
       </c>
     </row>
     <row r="83">
@@ -1102,7 +1102,7 @@
         <v>44643</v>
       </c>
       <c r="B83" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.3011451498745779</v>
       </c>
     </row>
     <row r="84">
@@ -1110,7 +1110,7 @@
         <v>44644</v>
       </c>
       <c r="B84" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.3131686620595298</v>
       </c>
     </row>
     <row r="85">
@@ -1118,7 +1118,7 @@
         <v>44645</v>
       </c>
       <c r="B85" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.315784319807643</v>
       </c>
     </row>
     <row r="86">
@@ -1126,7 +1126,7 @@
         <v>44646</v>
       </c>
       <c r="B86" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.3330635492023353</v>
       </c>
     </row>
     <row r="87">
@@ -1134,7 +1134,7 @@
         <v>44647</v>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>0.316429973764035</v>
       </c>
     </row>
     <row r="88">
@@ -1142,7 +1142,7 @@
         <v>44648</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.2901438268152797</v>
       </c>
     </row>
     <row r="89">
@@ -1150,7 +1150,7 @@
         <v>44649</v>
       </c>
       <c r="B89" t="n">
-        <v>0.929631637340838</v>
+        <v>0.3033445727546262</v>
       </c>
     </row>
     <row r="90">
@@ -1158,7 +1158,7 @@
         <v>44650</v>
       </c>
       <c r="B90" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.3141745751631156</v>
       </c>
     </row>
     <row r="91">
@@ -1166,7 +1166,7 @@
         <v>44651</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.3169052592665488</v>
       </c>
     </row>
     <row r="92">
@@ -1174,7 +1174,7 @@
         <v>44652</v>
       </c>
       <c r="B92" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.3116765008648624</v>
       </c>
     </row>
     <row r="93">
@@ -1182,7 +1182,7 @@
         <v>44653</v>
       </c>
       <c r="B93" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.3170776562464259</v>
       </c>
     </row>
     <row r="94">
@@ -1190,7 +1190,7 @@
         <v>44654</v>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>0.2969893273615027</v>
       </c>
     </row>
     <row r="95">
@@ -1198,7 +1198,7 @@
         <v>44655</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.286205500050761</v>
       </c>
     </row>
     <row r="96">
@@ -1206,7 +1206,7 @@
         <v>44656</v>
       </c>
       <c r="B96" t="n">
-        <v>0.929631637340838</v>
+        <v>0.276503747992587</v>
       </c>
     </row>
     <row r="97">
@@ -1214,7 +1214,7 @@
         <v>44657</v>
       </c>
       <c r="B97" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.2897487129927661</v>
       </c>
     </row>
     <row r="98">
@@ -1222,7 +1222,7 @@
         <v>44658</v>
       </c>
       <c r="B98" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.2786835561690653</v>
       </c>
     </row>
     <row r="99">
@@ -1230,7 +1230,7 @@
         <v>44659</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.2793615820216666</v>
       </c>
     </row>
     <row r="100">
@@ -1238,7 +1238,7 @@
         <v>44660</v>
       </c>
       <c r="B100" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.2930768210681696</v>
       </c>
     </row>
     <row r="101">
@@ -1246,7 +1246,7 @@
         <v>44661</v>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>0.298696373775749</v>
       </c>
     </row>
     <row r="102">
@@ -1254,7 +1254,7 @@
         <v>44662</v>
       </c>
       <c r="B102" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.2837865965990525</v>
       </c>
     </row>
     <row r="103">
@@ -1262,7 +1262,7 @@
         <v>44663</v>
       </c>
       <c r="B103" t="n">
-        <v>0.929631637340838</v>
+        <v>0.2887731352842745</v>
       </c>
     </row>
     <row r="104">
@@ -1270,7 +1270,7 @@
         <v>44664</v>
       </c>
       <c r="B104" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.2916706067531938</v>
       </c>
     </row>
     <row r="105">
@@ -1278,7 +1278,7 @@
         <v>44665</v>
       </c>
       <c r="B105" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.2952905095443701</v>
       </c>
     </row>
     <row r="106">
@@ -1286,7 +1286,7 @@
         <v>44666</v>
       </c>
       <c r="B106" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.3025889874228577</v>
       </c>
     </row>
     <row r="107">
@@ -1294,7 +1294,7 @@
         <v>44667</v>
       </c>
       <c r="B107" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.312390747315775</v>
       </c>
     </row>
     <row r="108">
@@ -1302,7 +1302,7 @@
         <v>44668</v>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>0.3179747985867929</v>
       </c>
     </row>
     <row r="109">
@@ -1310,7 +1310,7 @@
         <v>44669</v>
       </c>
       <c r="B109" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.2949423981499685</v>
       </c>
     </row>
     <row r="110">
@@ -1318,7 +1318,7 @@
         <v>44670</v>
       </c>
       <c r="B110" t="n">
-        <v>0.929631637340838</v>
+        <v>0.2871973929737193</v>
       </c>
     </row>
     <row r="111">
@@ -1326,7 +1326,7 @@
         <v>44671</v>
       </c>
       <c r="B111" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.2841556481962833</v>
       </c>
     </row>
     <row r="112">
@@ -1334,7 +1334,7 @@
         <v>44672</v>
       </c>
       <c r="B112" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.2880433115969532</v>
       </c>
     </row>
     <row r="113">
@@ -1342,7 +1342,7 @@
         <v>44673</v>
       </c>
       <c r="B113" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.3067182628298741</v>
       </c>
     </row>
     <row r="114">
@@ -1350,7 +1350,7 @@
         <v>44674</v>
       </c>
       <c r="B114" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.3349072188715825</v>
       </c>
     </row>
     <row r="115">
@@ -1358,7 +1358,7 @@
         <v>44675</v>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>0.3241744662898889</v>
       </c>
     </row>
     <row r="116">
@@ -1366,7 +1366,7 @@
         <v>44676</v>
       </c>
       <c r="B116" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.3310732722664808</v>
       </c>
     </row>
     <row r="117">
@@ -1374,7 +1374,7 @@
         <v>44677</v>
       </c>
       <c r="B117" t="n">
-        <v>0.929631637340838</v>
+        <v>0.3551847122449263</v>
       </c>
     </row>
     <row r="118">
@@ -1382,7 +1382,7 @@
         <v>44678</v>
       </c>
       <c r="B118" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.3799849839437049</v>
       </c>
     </row>
     <row r="119">
@@ -1390,7 +1390,7 @@
         <v>44679</v>
       </c>
       <c r="B119" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.4028372398257609</v>
       </c>
     </row>
     <row r="120">
@@ -1398,7 +1398,7 @@
         <v>44680</v>
       </c>
       <c r="B120" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.4077019877792904</v>
       </c>
     </row>
     <row r="121">
@@ -1406,7 +1406,7 @@
         <v>44681</v>
       </c>
       <c r="B121" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.3987895285349545</v>
       </c>
     </row>
     <row r="122">
@@ -1414,7 +1414,7 @@
         <v>44682</v>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>0.303707859486037</v>
       </c>
     </row>
     <row r="123">
@@ -1422,7 +1422,7 @@
         <v>44683</v>
       </c>
       <c r="B123" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.2792205381369304</v>
       </c>
     </row>
     <row r="124">
@@ -1430,7 +1430,7 @@
         <v>44684</v>
       </c>
       <c r="B124" t="n">
-        <v>0.929631637340838</v>
+        <v>0.2807512417239805</v>
       </c>
     </row>
     <row r="125">
@@ -1438,7 +1438,7 @@
         <v>44685</v>
       </c>
       <c r="B125" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.2921526893024916</v>
       </c>
     </row>
     <row r="126">
@@ -1446,7 +1446,7 @@
         <v>44686</v>
       </c>
       <c r="B126" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.2868644850855307</v>
       </c>
     </row>
     <row r="127">
@@ -1454,7 +1454,7 @@
         <v>44687</v>
       </c>
       <c r="B127" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.2968913398330354</v>
       </c>
     </row>
     <row r="128">
@@ -1462,7 +1462,7 @@
         <v>44688</v>
       </c>
       <c r="B128" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.3144002413166228</v>
       </c>
     </row>
     <row r="129">
@@ -1470,7 +1470,7 @@
         <v>44689</v>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>0.3251957294941951</v>
       </c>
     </row>
     <row r="130">
@@ -1478,7 +1478,7 @@
         <v>44690</v>
       </c>
       <c r="B130" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.3094583665737965</v>
       </c>
     </row>
     <row r="131">
@@ -1486,7 +1486,7 @@
         <v>44691</v>
       </c>
       <c r="B131" t="n">
-        <v>0.929631637340838</v>
+        <v>0.3180951339458043</v>
       </c>
     </row>
     <row r="132">
@@ -1494,7 +1494,7 @@
         <v>44692</v>
       </c>
       <c r="B132" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.3212280129271549</v>
       </c>
     </row>
     <row r="133">
@@ -1502,7 +1502,7 @@
         <v>44693</v>
       </c>
       <c r="B133" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.3168140936440422</v>
       </c>
     </row>
     <row r="134">
@@ -1510,7 +1510,7 @@
         <v>44694</v>
       </c>
       <c r="B134" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.3013532315472541</v>
       </c>
     </row>
     <row r="135">
@@ -1518,7 +1518,7 @@
         <v>44695</v>
       </c>
       <c r="B135" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.3156863396207089</v>
       </c>
     </row>
     <row r="136">
@@ -1526,7 +1526,7 @@
         <v>44696</v>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>0.3157305185089815</v>
       </c>
     </row>
     <row r="137">
@@ -1534,7 +1534,7 @@
         <v>44697</v>
       </c>
       <c r="B137" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.2767295805337545</v>
       </c>
     </row>
     <row r="138">
@@ -1542,7 +1542,7 @@
         <v>44698</v>
       </c>
       <c r="B138" t="n">
-        <v>0.929631637340838</v>
+        <v>0.2755440848815222</v>
       </c>
     </row>
     <row r="139">
@@ -1550,7 +1550,7 @@
         <v>44699</v>
       </c>
       <c r="B139" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.2821390924808852</v>
       </c>
     </row>
     <row r="140">
@@ -1558,7 +1558,7 @@
         <v>44700</v>
       </c>
       <c r="B140" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.2955272791342657</v>
       </c>
     </row>
     <row r="141">
@@ -1566,7 +1566,7 @@
         <v>44701</v>
       </c>
       <c r="B141" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.3090056631177514</v>
       </c>
     </row>
     <row r="142">
@@ -1574,7 +1574,7 @@
         <v>44702</v>
       </c>
       <c r="B142" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.3261446045793167</v>
       </c>
     </row>
     <row r="143">
@@ -1582,7 +1582,7 @@
         <v>44703</v>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>0.3448165278720817</v>
       </c>
     </row>
     <row r="144">
@@ -1590,7 +1590,7 @@
         <v>44704</v>
       </c>
       <c r="B144" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.3187515872181895</v>
       </c>
     </row>
     <row r="145">
@@ -1598,7 +1598,7 @@
         <v>44705</v>
       </c>
       <c r="B145" t="n">
-        <v>0.929631637340838</v>
+        <v>0.3201189343953372</v>
       </c>
     </row>
     <row r="146">
@@ -1606,7 +1606,7 @@
         <v>44706</v>
       </c>
       <c r="B146" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.336816574572119</v>
       </c>
     </row>
     <row r="147">
@@ -1614,7 +1614,7 @@
         <v>44707</v>
       </c>
       <c r="B147" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.3774161151060322</v>
       </c>
     </row>
     <row r="148">
@@ -1622,7 +1622,7 @@
         <v>44708</v>
       </c>
       <c r="B148" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.4000101457806259</v>
       </c>
     </row>
     <row r="149">
@@ -1630,7 +1630,7 @@
         <v>44709</v>
       </c>
       <c r="B149" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.449204615464634</v>
       </c>
     </row>
     <row r="150">
@@ -1638,7 +1638,7 @@
         <v>44710</v>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>0.5020708865689624</v>
       </c>
     </row>
     <row r="151">
@@ -1646,7 +1646,7 @@
         <v>44711</v>
       </c>
       <c r="B151" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.467570604536565</v>
       </c>
     </row>
     <row r="152">
@@ -1654,7 +1654,7 @@
         <v>44712</v>
       </c>
       <c r="B152" t="n">
-        <v>0.929631637340838</v>
+        <v>0.465774833270393</v>
       </c>
     </row>
     <row r="153">
@@ -1662,7 +1662,7 @@
         <v>44713</v>
       </c>
       <c r="B153" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.4871747855533473</v>
       </c>
     </row>
     <row r="154">
@@ -1670,7 +1670,7 @@
         <v>44714</v>
       </c>
       <c r="B154" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.5002111876272967</v>
       </c>
     </row>
     <row r="155">
@@ -1678,7 +1678,7 @@
         <v>44715</v>
       </c>
       <c r="B155" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.5616802670682937</v>
       </c>
     </row>
     <row r="156">
@@ -1686,7 +1686,7 @@
         <v>44716</v>
       </c>
       <c r="B156" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.5860053608990662</v>
       </c>
     </row>
     <row r="157">
@@ -1694,7 +1694,7 @@
         <v>44717</v>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
+        <v>0.5909076347383543</v>
       </c>
     </row>
     <row r="158">
@@ -1702,7 +1702,7 @@
         <v>44718</v>
       </c>
       <c r="B158" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.4875953447259213</v>
       </c>
     </row>
     <row r="159">
@@ -1710,7 +1710,7 @@
         <v>44719</v>
       </c>
       <c r="B159" t="n">
-        <v>0.929631637340838</v>
+        <v>0.4517608364851927</v>
       </c>
     </row>
     <row r="160">
@@ -1718,7 +1718,7 @@
         <v>44720</v>
       </c>
       <c r="B160" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.4709533817450601</v>
       </c>
     </row>
     <row r="161">
@@ -1726,7 +1726,7 @@
         <v>44721</v>
       </c>
       <c r="B161" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.4912675031087945</v>
       </c>
     </row>
     <row r="162">
@@ -1734,7 +1734,7 @@
         <v>44722</v>
       </c>
       <c r="B162" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.4693549637228405</v>
       </c>
     </row>
     <row r="163">
@@ -1742,7 +1742,7 @@
         <v>44723</v>
       </c>
       <c r="B163" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.4514095937722726</v>
       </c>
     </row>
     <row r="164">
@@ -1750,7 +1750,7 @@
         <v>44724</v>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>0.4876092632666206</v>
       </c>
     </row>
     <row r="165">
@@ -1758,7 +1758,7 @@
         <v>44725</v>
       </c>
       <c r="B165" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.4395475270277918</v>
       </c>
     </row>
     <row r="166">
@@ -1766,7 +1766,7 @@
         <v>44726</v>
       </c>
       <c r="B166" t="n">
-        <v>0.929631637340838</v>
+        <v>0.3970307009527872</v>
       </c>
     </row>
     <row r="167">
@@ -1774,7 +1774,7 @@
         <v>44727</v>
       </c>
       <c r="B167" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.4000845267567493</v>
       </c>
     </row>
     <row r="168">
@@ -1782,7 +1782,7 @@
         <v>44728</v>
       </c>
       <c r="B168" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.4219637169631463</v>
       </c>
     </row>
     <row r="169">
@@ -1790,7 +1790,7 @@
         <v>44729</v>
       </c>
       <c r="B169" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.4515218424284104</v>
       </c>
     </row>
     <row r="170">
@@ -1798,7 +1798,7 @@
         <v>44730</v>
       </c>
       <c r="B170" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.5433536982881108</v>
       </c>
     </row>
     <row r="171">
@@ -1806,7 +1806,7 @@
         <v>44731</v>
       </c>
       <c r="B171" t="n">
-        <v>1</v>
+        <v>0.6057830307080503</v>
       </c>
     </row>
     <row r="172">
@@ -1814,7 +1814,7 @@
         <v>44732</v>
       </c>
       <c r="B172" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.5542721429424889</v>
       </c>
     </row>
     <row r="173">
@@ -1822,7 +1822,7 @@
         <v>44733</v>
       </c>
       <c r="B173" t="n">
-        <v>0.929631637340838</v>
+        <v>0.5579007270185886</v>
       </c>
     </row>
     <row r="174">
@@ -1830,7 +1830,7 @@
         <v>44734</v>
       </c>
       <c r="B174" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.5801122382715523</v>
       </c>
     </row>
     <row r="175">
@@ -1838,7 +1838,7 @@
         <v>44735</v>
       </c>
       <c r="B175" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.5972862297683481</v>
       </c>
     </row>
     <row r="176">
@@ -1846,7 +1846,7 @@
         <v>44736</v>
       </c>
       <c r="B176" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.6154909843608063</v>
       </c>
     </row>
     <row r="177">
@@ -1854,7 +1854,7 @@
         <v>44737</v>
       </c>
       <c r="B177" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.6876965148177276</v>
       </c>
     </row>
     <row r="178">
@@ -1862,7 +1862,7 @@
         <v>44738</v>
       </c>
       <c r="B178" t="n">
-        <v>1</v>
+        <v>0.6831409391335698</v>
       </c>
     </row>
     <row r="179">
@@ -1870,7 +1870,7 @@
         <v>44739</v>
       </c>
       <c r="B179" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.6336267195080396</v>
       </c>
     </row>
     <row r="180">
@@ -1878,7 +1878,7 @@
         <v>44740</v>
       </c>
       <c r="B180" t="n">
-        <v>0.929631637340838</v>
+        <v>0.6414959176927946</v>
       </c>
     </row>
     <row r="181">
@@ -1886,7 +1886,7 @@
         <v>44741</v>
       </c>
       <c r="B181" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.5891715573124696</v>
       </c>
     </row>
     <row r="182">
@@ -1894,7 +1894,7 @@
         <v>44742</v>
       </c>
       <c r="B182" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.5864309794668828</v>
       </c>
     </row>
     <row r="183">
@@ -1902,7 +1902,7 @@
         <v>44743</v>
       </c>
       <c r="B183" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.6246839075184702</v>
       </c>
     </row>
     <row r="184">
@@ -1910,7 +1910,7 @@
         <v>44744</v>
       </c>
       <c r="B184" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.6298302687862382</v>
       </c>
     </row>
     <row r="185">
@@ -1918,7 +1918,7 @@
         <v>44745</v>
       </c>
       <c r="B185" t="n">
-        <v>1</v>
+        <v>0.5738222795847747</v>
       </c>
     </row>
     <row r="186">
@@ -1926,7 +1926,7 @@
         <v>44746</v>
       </c>
       <c r="B186" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.5606432526498699</v>
       </c>
     </row>
     <row r="187">
@@ -1934,7 +1934,7 @@
         <v>44747</v>
       </c>
       <c r="B187" t="n">
-        <v>0.929631637340838</v>
+        <v>0.6041331788110779</v>
       </c>
     </row>
     <row r="188">
@@ -1942,7 +1942,7 @@
         <v>44748</v>
       </c>
       <c r="B188" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.5270974536089689</v>
       </c>
     </row>
     <row r="189">
@@ -1950,7 +1950,7 @@
         <v>44749</v>
       </c>
       <c r="B189" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.5435623420962378</v>
       </c>
     </row>
     <row r="190">
@@ -1958,7 +1958,7 @@
         <v>44750</v>
       </c>
       <c r="B190" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.5384224081867837</v>
       </c>
     </row>
     <row r="191">
@@ -1966,7 +1966,7 @@
         <v>44751</v>
       </c>
       <c r="B191" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.5936256461076808</v>
       </c>
     </row>
     <row r="192">
@@ -1974,7 +1974,7 @@
         <v>44752</v>
       </c>
       <c r="B192" t="n">
-        <v>1</v>
+        <v>0.6458874045942095</v>
       </c>
     </row>
     <row r="193">
@@ -1982,7 +1982,7 @@
         <v>44753</v>
       </c>
       <c r="B193" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.6774244549370544</v>
       </c>
     </row>
     <row r="194">
@@ -1990,7 +1990,7 @@
         <v>44754</v>
       </c>
       <c r="B194" t="n">
-        <v>0.929631637340838</v>
+        <v>0.7195215214433083</v>
       </c>
     </row>
     <row r="195">
@@ -1998,7 +1998,7 @@
         <v>44755</v>
       </c>
       <c r="B195" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.7533590085359548</v>
       </c>
     </row>
     <row r="196">
@@ -2006,7 +2006,7 @@
         <v>44756</v>
       </c>
       <c r="B196" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.7854080310037087</v>
       </c>
     </row>
     <row r="197">
@@ -2014,7 +2014,7 @@
         <v>44757</v>
       </c>
       <c r="B197" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.7962180667565297</v>
       </c>
     </row>
     <row r="198">
@@ -2022,7 +2022,7 @@
         <v>44758</v>
       </c>
       <c r="B198" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.8361247655969208</v>
       </c>
     </row>
     <row r="199">
@@ -2030,7 +2030,7 @@
         <v>44759</v>
       </c>
       <c r="B199" t="n">
-        <v>1</v>
+        <v>0.8656143657094061</v>
       </c>
     </row>
     <row r="200">
@@ -2038,7 +2038,7 @@
         <v>44760</v>
       </c>
       <c r="B200" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.8176604658519642</v>
       </c>
     </row>
     <row r="201">
@@ -2046,7 +2046,7 @@
         <v>44761</v>
       </c>
       <c r="B201" t="n">
-        <v>0.929631637340838</v>
+        <v>0.7962845073192222</v>
       </c>
     </row>
     <row r="202">
@@ -2054,7 +2054,7 @@
         <v>44762</v>
       </c>
       <c r="B202" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.7712381285387561</v>
       </c>
     </row>
     <row r="203">
@@ -2062,7 +2062,7 @@
         <v>44763</v>
       </c>
       <c r="B203" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.7159319761284598</v>
       </c>
     </row>
     <row r="204">
@@ -2070,7 +2070,7 @@
         <v>44764</v>
       </c>
       <c r="B204" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.7163442112275257</v>
       </c>
     </row>
     <row r="205">
@@ -2078,7 +2078,7 @@
         <v>44765</v>
       </c>
       <c r="B205" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.7862492208666755</v>
       </c>
     </row>
     <row r="206">
@@ -2086,7 +2086,7 @@
         <v>44766</v>
       </c>
       <c r="B206" t="n">
-        <v>1</v>
+        <v>0.8395080210930727</v>
       </c>
     </row>
     <row r="207">
@@ -2094,7 +2094,7 @@
         <v>44767</v>
       </c>
       <c r="B207" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.8571449947896084</v>
       </c>
     </row>
     <row r="208">
@@ -2102,7 +2102,7 @@
         <v>44768</v>
       </c>
       <c r="B208" t="n">
-        <v>0.929631637340838</v>
+        <v>0.8790140878792025</v>
       </c>
     </row>
     <row r="209">
@@ -2110,7 +2110,7 @@
         <v>44769</v>
       </c>
       <c r="B209" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.871475431398994</v>
       </c>
     </row>
     <row r="210">
@@ -2118,7 +2118,7 @@
         <v>44770</v>
       </c>
       <c r="B210" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.8633164781260563</v>
       </c>
     </row>
     <row r="211">
@@ -2126,7 +2126,7 @@
         <v>44771</v>
       </c>
       <c r="B211" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.8209133961855115</v>
       </c>
     </row>
     <row r="212">
@@ -2134,7 +2134,7 @@
         <v>44772</v>
       </c>
       <c r="B212" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.8026239250904998</v>
       </c>
     </row>
     <row r="213">
@@ -2142,7 +2142,7 @@
         <v>44773</v>
       </c>
       <c r="B213" t="n">
-        <v>1</v>
+        <v>0.814513016095298</v>
       </c>
     </row>
     <row r="214">
@@ -2150,7 +2150,7 @@
         <v>44774</v>
       </c>
       <c r="B214" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.8136362487053399</v>
       </c>
     </row>
     <row r="215">
@@ -2158,7 +2158,7 @@
         <v>44775</v>
       </c>
       <c r="B215" t="n">
-        <v>0.929631637340838</v>
+        <v>0.8317755034867533</v>
       </c>
     </row>
     <row r="216">
@@ -2166,7 +2166,7 @@
         <v>44776</v>
       </c>
       <c r="B216" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.8487558886692664</v>
       </c>
     </row>
     <row r="217">
@@ -2174,7 +2174,7 @@
         <v>44777</v>
       </c>
       <c r="B217" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.7793532423604977</v>
       </c>
     </row>
     <row r="218">
@@ -2182,7 +2182,7 @@
         <v>44778</v>
       </c>
       <c r="B218" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.6141872130921825</v>
       </c>
     </row>
     <row r="219">
@@ -2190,7 +2190,7 @@
         <v>44779</v>
       </c>
       <c r="B219" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.5708825671195574</v>
       </c>
     </row>
     <row r="220">
@@ -2198,7 +2198,7 @@
         <v>44780</v>
       </c>
       <c r="B220" t="n">
-        <v>1</v>
+        <v>0.6220599904139782</v>
       </c>
     </row>
     <row r="221">
@@ -2206,7 +2206,7 @@
         <v>44781</v>
       </c>
       <c r="B221" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.6555385111360649</v>
       </c>
     </row>
     <row r="222">
@@ -2214,7 +2214,7 @@
         <v>44782</v>
       </c>
       <c r="B222" t="n">
-        <v>0.929631637340838</v>
+        <v>0.623184704531655</v>
       </c>
     </row>
     <row r="223">
@@ -2222,7 +2222,7 @@
         <v>44783</v>
       </c>
       <c r="B223" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.5720593698922856</v>
       </c>
     </row>
     <row r="224">
@@ -2230,7 +2230,7 @@
         <v>44784</v>
       </c>
       <c r="B224" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.5157343875554352</v>
       </c>
     </row>
     <row r="225">
@@ -2238,7 +2238,7 @@
         <v>44785</v>
       </c>
       <c r="B225" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.5174429672501994</v>
       </c>
     </row>
     <row r="226">
@@ -2246,7 +2246,7 @@
         <v>44786</v>
       </c>
       <c r="B226" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.5542283974573347</v>
       </c>
     </row>
     <row r="227">
@@ -2254,7 +2254,7 @@
         <v>44787</v>
       </c>
       <c r="B227" t="n">
-        <v>1</v>
+        <v>0.6270132046859441</v>
       </c>
     </row>
     <row r="228">
@@ -2262,7 +2262,7 @@
         <v>44788</v>
       </c>
       <c r="B228" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.6902171927120174</v>
       </c>
     </row>
     <row r="229">
@@ -2270,7 +2270,7 @@
         <v>44789</v>
       </c>
       <c r="B229" t="n">
-        <v>0.929631637340838</v>
+        <v>0.7527391297249758</v>
       </c>
     </row>
     <row r="230">
@@ -2278,7 +2278,7 @@
         <v>44790</v>
       </c>
       <c r="B230" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.7745223469117547</v>
       </c>
     </row>
     <row r="231">
@@ -2286,7 +2286,7 @@
         <v>44791</v>
       </c>
       <c r="B231" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.7637694373364076</v>
       </c>
     </row>
     <row r="232">
@@ -2294,7 +2294,7 @@
         <v>44792</v>
       </c>
       <c r="B232" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.7777339588975489</v>
       </c>
     </row>
     <row r="233">
@@ -2302,7 +2302,7 @@
         <v>44793</v>
       </c>
       <c r="B233" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.7336531901557555</v>
       </c>
     </row>
     <row r="234">
@@ -2310,7 +2310,7 @@
         <v>44794</v>
       </c>
       <c r="B234" t="n">
-        <v>1</v>
+        <v>0.6275661143647587</v>
       </c>
     </row>
     <row r="235">
@@ -2318,7 +2318,7 @@
         <v>44795</v>
       </c>
       <c r="B235" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.6446964633706711</v>
       </c>
     </row>
     <row r="236">
@@ -2326,7 +2326,7 @@
         <v>44796</v>
       </c>
       <c r="B236" t="n">
-        <v>0.929631637340838</v>
+        <v>0.7286850175283636</v>
       </c>
     </row>
     <row r="237">
@@ -2334,7 +2334,7 @@
         <v>44797</v>
       </c>
       <c r="B237" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.806454497453671</v>
       </c>
     </row>
     <row r="238">
@@ -2342,7 +2342,7 @@
         <v>44798</v>
       </c>
       <c r="B238" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.7154905193934886</v>
       </c>
     </row>
     <row r="239">
@@ -2350,7 +2350,7 @@
         <v>44799</v>
       </c>
       <c r="B239" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.5842698012211904</v>
       </c>
     </row>
     <row r="240">
@@ -2358,7 +2358,7 @@
         <v>44800</v>
       </c>
       <c r="B240" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.619776409439191</v>
       </c>
     </row>
     <row r="241">
@@ -2366,7 +2366,7 @@
         <v>44801</v>
       </c>
       <c r="B241" t="n">
-        <v>1</v>
+        <v>0.7125926326575769</v>
       </c>
     </row>
     <row r="242">
@@ -2374,7 +2374,7 @@
         <v>44802</v>
       </c>
       <c r="B242" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.7089360471160039</v>
       </c>
     </row>
     <row r="243">
@@ -2382,7 +2382,7 @@
         <v>44803</v>
       </c>
       <c r="B243" t="n">
-        <v>0.929631637340838</v>
+        <v>0.7301614848269108</v>
       </c>
     </row>
     <row r="244">
@@ -2390,7 +2390,7 @@
         <v>44804</v>
       </c>
       <c r="B244" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.7012116223425385</v>
       </c>
     </row>
     <row r="245">
@@ -2398,7 +2398,7 @@
         <v>44805</v>
       </c>
       <c r="B245" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.6030986563882839</v>
       </c>
     </row>
     <row r="246">
@@ -2406,7 +2406,7 @@
         <v>44806</v>
       </c>
       <c r="B246" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.5968924718599257</v>
       </c>
     </row>
     <row r="247">
@@ -2414,7 +2414,7 @@
         <v>44807</v>
       </c>
       <c r="B247" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.6457294056917776</v>
       </c>
     </row>
     <row r="248">
@@ -2422,7 +2422,7 @@
         <v>44808</v>
       </c>
       <c r="B248" t="n">
-        <v>1</v>
+        <v>0.637112611489787</v>
       </c>
     </row>
     <row r="249">
@@ -2430,7 +2430,7 @@
         <v>44809</v>
       </c>
       <c r="B249" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.5726834741753571</v>
       </c>
     </row>
     <row r="250">
@@ -2438,7 +2438,7 @@
         <v>44810</v>
       </c>
       <c r="B250" t="n">
-        <v>0.929631637340838</v>
+        <v>0.5851526535733043</v>
       </c>
     </row>
     <row r="251">
@@ -2446,7 +2446,7 @@
         <v>44811</v>
       </c>
       <c r="B251" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.6314636768132803</v>
       </c>
     </row>
     <row r="252">
@@ -2454,7 +2454,7 @@
         <v>44812</v>
       </c>
       <c r="B252" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.5873479852357096</v>
       </c>
     </row>
     <row r="253">
@@ -2462,7 +2462,7 @@
         <v>44813</v>
       </c>
       <c r="B253" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.542793483654504</v>
       </c>
     </row>
     <row r="254">
@@ -2470,7 +2470,7 @@
         <v>44814</v>
       </c>
       <c r="B254" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.5834919840097536</v>
       </c>
     </row>
     <row r="255">
@@ -2478,7 +2478,7 @@
         <v>44815</v>
       </c>
       <c r="B255" t="n">
-        <v>1</v>
+        <v>0.5390575411450571</v>
       </c>
     </row>
     <row r="256">
@@ -2486,7 +2486,7 @@
         <v>44816</v>
       </c>
       <c r="B256" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.5475059994188859</v>
       </c>
     </row>
     <row r="257">
@@ -2494,7 +2494,7 @@
         <v>44817</v>
       </c>
       <c r="B257" t="n">
-        <v>0.929631637340838</v>
+        <v>0.5142762782175737</v>
       </c>
     </row>
     <row r="258">
@@ -2502,7 +2502,7 @@
         <v>44818</v>
       </c>
       <c r="B258" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.5280396662391106</v>
       </c>
     </row>
     <row r="259">
@@ -2510,7 +2510,7 @@
         <v>44819</v>
       </c>
       <c r="B259" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.56833883965651</v>
       </c>
     </row>
     <row r="260">
@@ -2518,7 +2518,7 @@
         <v>44820</v>
       </c>
       <c r="B260" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.5923312309453327</v>
       </c>
     </row>
     <row r="261">
@@ -2526,7 +2526,7 @@
         <v>44821</v>
       </c>
       <c r="B261" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.7007525754167599</v>
       </c>
     </row>
     <row r="262">
@@ -2534,7 +2534,7 @@
         <v>44822</v>
       </c>
       <c r="B262" t="n">
-        <v>1</v>
+        <v>0.75942754416207</v>
       </c>
     </row>
     <row r="263">
@@ -2542,7 +2542,7 @@
         <v>44823</v>
       </c>
       <c r="B263" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.709127129042687</v>
       </c>
     </row>
     <row r="264">
@@ -2550,7 +2550,7 @@
         <v>44824</v>
       </c>
       <c r="B264" t="n">
-        <v>0.929631637340838</v>
+        <v>0.6583180708887781</v>
       </c>
     </row>
     <row r="265">
@@ -2558,7 +2558,7 @@
         <v>44825</v>
       </c>
       <c r="B265" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.5871422952633718</v>
       </c>
     </row>
     <row r="266">
@@ -2566,7 +2566,7 @@
         <v>44826</v>
       </c>
       <c r="B266" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.5640875891692378</v>
       </c>
     </row>
     <row r="267">
@@ -2574,7 +2574,7 @@
         <v>44827</v>
       </c>
       <c r="B267" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.5112267364155569</v>
       </c>
     </row>
     <row r="268">
@@ -2582,7 +2582,7 @@
         <v>44828</v>
       </c>
       <c r="B268" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.4968244880901088</v>
       </c>
     </row>
     <row r="269">
@@ -2590,7 +2590,7 @@
         <v>44829</v>
       </c>
       <c r="B269" t="n">
-        <v>1</v>
+        <v>0.5365281260130472</v>
       </c>
     </row>
     <row r="270">
@@ -2598,7 +2598,7 @@
         <v>44830</v>
       </c>
       <c r="B270" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.515098558244434</v>
       </c>
     </row>
     <row r="271">
@@ -2606,7 +2606,7 @@
         <v>44831</v>
       </c>
       <c r="B271" t="n">
-        <v>0.929631637340838</v>
+        <v>0.5494240300214658</v>
       </c>
     </row>
     <row r="272">
@@ -2614,7 +2614,7 @@
         <v>44832</v>
       </c>
       <c r="B272" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.5567265084347709</v>
       </c>
     </row>
     <row r="273">
@@ -2622,7 +2622,7 @@
         <v>44833</v>
       </c>
       <c r="B273" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.5289697291321628</v>
       </c>
     </row>
     <row r="274">
@@ -2630,7 +2630,7 @@
         <v>44834</v>
       </c>
       <c r="B274" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.4883014189126186</v>
       </c>
     </row>
     <row r="275">
@@ -2638,7 +2638,7 @@
         <v>44835</v>
       </c>
       <c r="B275" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.478807759250313</v>
       </c>
     </row>
     <row r="276">
@@ -2646,7 +2646,7 @@
         <v>44836</v>
       </c>
       <c r="B276" t="n">
-        <v>1</v>
+        <v>0.468065037699526</v>
       </c>
     </row>
     <row r="277">
@@ -2654,7 +2654,7 @@
         <v>44837</v>
       </c>
       <c r="B277" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.5132049209060823</v>
       </c>
     </row>
     <row r="278">
@@ -2662,7 +2662,7 @@
         <v>44838</v>
       </c>
       <c r="B278" t="n">
-        <v>0.929631637340838</v>
+        <v>0.5397917733042045</v>
       </c>
     </row>
     <row r="279">
@@ -2670,7 +2670,7 @@
         <v>44839</v>
       </c>
       <c r="B279" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.5787368304509868</v>
       </c>
     </row>
     <row r="280">
@@ -2678,7 +2678,7 @@
         <v>44840</v>
       </c>
       <c r="B280" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.5753323135061159</v>
       </c>
     </row>
     <row r="281">
@@ -2686,7 +2686,7 @@
         <v>44841</v>
       </c>
       <c r="B281" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.4626776131676782</v>
       </c>
     </row>
     <row r="282">
@@ -2694,7 +2694,7 @@
         <v>44842</v>
       </c>
       <c r="B282" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.3340501533309981</v>
       </c>
     </row>
     <row r="283">
@@ -2702,7 +2702,7 @@
         <v>44843</v>
       </c>
       <c r="B283" t="n">
-        <v>1</v>
+        <v>0.3103558631932855</v>
       </c>
     </row>
     <row r="284">
@@ -2710,7 +2710,7 @@
         <v>44844</v>
       </c>
       <c r="B284" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.2795318593441463</v>
       </c>
     </row>
     <row r="285">
@@ -2718,7 +2718,7 @@
         <v>44845</v>
       </c>
       <c r="B285" t="n">
-        <v>0.929631637340838</v>
+        <v>0.2782079166825032</v>
       </c>
     </row>
     <row r="286">
@@ -2726,7 +2726,7 @@
         <v>44846</v>
       </c>
       <c r="B286" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.2795410448383569</v>
       </c>
     </row>
     <row r="287">
@@ -2734,7 +2734,7 @@
         <v>44847</v>
       </c>
       <c r="B287" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.2819776382349647</v>
       </c>
     </row>
     <row r="288">
@@ -2742,7 +2742,7 @@
         <v>44848</v>
       </c>
       <c r="B288" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.2871454452521284</v>
       </c>
     </row>
     <row r="289">
@@ -2750,7 +2750,7 @@
         <v>44849</v>
       </c>
       <c r="B289" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.3094171222138981</v>
       </c>
     </row>
     <row r="290">
@@ -2758,7 +2758,7 @@
         <v>44850</v>
       </c>
       <c r="B290" t="n">
-        <v>1</v>
+        <v>0.3207588990119447</v>
       </c>
     </row>
     <row r="291">
@@ -2766,7 +2766,7 @@
         <v>44851</v>
       </c>
       <c r="B291" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.3046403686486543</v>
       </c>
     </row>
     <row r="292">
@@ -2774,7 +2774,7 @@
         <v>44852</v>
       </c>
       <c r="B292" t="n">
-        <v>0.929631637340838</v>
+        <v>0.299457594993487</v>
       </c>
     </row>
     <row r="293">
@@ -2782,7 +2782,7 @@
         <v>44853</v>
       </c>
       <c r="B293" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.2881889155653217</v>
       </c>
     </row>
     <row r="294">
@@ -2790,7 +2790,7 @@
         <v>44854</v>
       </c>
       <c r="B294" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.2825049141880884</v>
       </c>
     </row>
     <row r="295">
@@ -2798,7 +2798,7 @@
         <v>44855</v>
       </c>
       <c r="B295" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.2848524500845236</v>
       </c>
     </row>
     <row r="296">
@@ -2806,7 +2806,7 @@
         <v>44856</v>
       </c>
       <c r="B296" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.318972489624031</v>
       </c>
     </row>
     <row r="297">
@@ -2814,7 +2814,7 @@
         <v>44857</v>
       </c>
       <c r="B297" t="n">
-        <v>1</v>
+        <v>0.3491546131278842</v>
       </c>
     </row>
     <row r="298">
@@ -2822,7 +2822,7 @@
         <v>44858</v>
       </c>
       <c r="B298" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.3312352320277284</v>
       </c>
     </row>
     <row r="299">
@@ -2830,7 +2830,7 @@
         <v>44859</v>
       </c>
       <c r="B299" t="n">
-        <v>0.929631637340838</v>
+        <v>0.3394995755797647</v>
       </c>
     </row>
     <row r="300">
@@ -2838,7 +2838,7 @@
         <v>44860</v>
       </c>
       <c r="B300" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.336172268421114</v>
       </c>
     </row>
     <row r="301">
@@ -2846,7 +2846,7 @@
         <v>44861</v>
       </c>
       <c r="B301" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.3358540783939482</v>
       </c>
     </row>
     <row r="302">
@@ -2854,7 +2854,7 @@
         <v>44862</v>
       </c>
       <c r="B302" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.3160324939473674</v>
       </c>
     </row>
     <row r="303">
@@ -2862,7 +2862,7 @@
         <v>44863</v>
       </c>
       <c r="B303" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.3290473449474549</v>
       </c>
     </row>
     <row r="304">
@@ -2870,7 +2870,7 @@
         <v>44864</v>
       </c>
       <c r="B304" t="n">
-        <v>1</v>
+        <v>0.3251315226010619</v>
       </c>
     </row>
     <row r="305">
@@ -2878,7 +2878,7 @@
         <v>44865</v>
       </c>
       <c r="B305" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.2920312093167302</v>
       </c>
     </row>
     <row r="306">
@@ -2886,7 +2886,7 @@
         <v>44866</v>
       </c>
       <c r="B306" t="n">
-        <v>0.929631637340838</v>
+        <v>0.2852639844734297</v>
       </c>
     </row>
     <row r="307">
@@ -2894,7 +2894,7 @@
         <v>44867</v>
       </c>
       <c r="B307" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.2867608248668259</v>
       </c>
     </row>
     <row r="308">
@@ -2902,7 +2902,7 @@
         <v>44868</v>
       </c>
       <c r="B308" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.2899423670182756</v>
       </c>
     </row>
     <row r="309">
@@ -2910,7 +2910,7 @@
         <v>44869</v>
       </c>
       <c r="B309" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.295254272080475</v>
       </c>
     </row>
     <row r="310">
@@ -2918,7 +2918,7 @@
         <v>44870</v>
       </c>
       <c r="B310" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.3070666195122722</v>
       </c>
     </row>
     <row r="311">
@@ -2926,7 +2926,7 @@
         <v>44871</v>
       </c>
       <c r="B311" t="n">
-        <v>1</v>
+        <v>0.306118408119338</v>
       </c>
     </row>
     <row r="312">
@@ -2934,7 +2934,7 @@
         <v>44872</v>
       </c>
       <c r="B312" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.2854075334245865</v>
       </c>
     </row>
     <row r="313">
@@ -2942,7 +2942,7 @@
         <v>44873</v>
       </c>
       <c r="B313" t="n">
-        <v>0.929631637340838</v>
+        <v>0.2869403164831552</v>
       </c>
     </row>
     <row r="314">
@@ -2950,7 +2950,7 @@
         <v>44874</v>
       </c>
       <c r="B314" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.2896785633977822</v>
       </c>
     </row>
     <row r="315">
@@ -2958,7 +2958,7 @@
         <v>44875</v>
       </c>
       <c r="B315" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.2980911889495161</v>
       </c>
     </row>
     <row r="316">
@@ -2966,7 +2966,7 @@
         <v>44876</v>
       </c>
       <c r="B316" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.3049950689549144</v>
       </c>
     </row>
     <row r="317">
@@ -2974,7 +2974,7 @@
         <v>44877</v>
       </c>
       <c r="B317" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.3301099502590855</v>
       </c>
     </row>
     <row r="318">
@@ -2982,7 +2982,7 @@
         <v>44878</v>
       </c>
       <c r="B318" t="n">
-        <v>1</v>
+        <v>0.3407619622453715</v>
       </c>
     </row>
     <row r="319">
@@ -2990,7 +2990,7 @@
         <v>44879</v>
       </c>
       <c r="B319" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.3112392962578521</v>
       </c>
     </row>
     <row r="320">
@@ -2998,7 +2998,7 @@
         <v>44880</v>
       </c>
       <c r="B320" t="n">
-        <v>0.929631637340838</v>
+        <v>0.3007308408114394</v>
       </c>
     </row>
     <row r="321">
@@ -3006,7 +3006,7 @@
         <v>44881</v>
       </c>
       <c r="B321" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.2977487554676436</v>
       </c>
     </row>
     <row r="322">
@@ -3014,7 +3014,7 @@
         <v>44882</v>
       </c>
       <c r="B322" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.3055491963413736</v>
       </c>
     </row>
     <row r="323">
@@ -3022,7 +3022,7 @@
         <v>44883</v>
       </c>
       <c r="B323" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.3088864512972052</v>
       </c>
     </row>
     <row r="324">
@@ -3030,7 +3030,7 @@
         <v>44884</v>
       </c>
       <c r="B324" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.327276006378277</v>
       </c>
     </row>
     <row r="325">
@@ -3038,7 +3038,7 @@
         <v>44885</v>
       </c>
       <c r="B325" t="n">
-        <v>1</v>
+        <v>0.3217743213030846</v>
       </c>
     </row>
     <row r="326">
@@ -3046,7 +3046,7 @@
         <v>44886</v>
       </c>
       <c r="B326" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.303165112799844</v>
       </c>
     </row>
     <row r="327">
@@ -3054,7 +3054,7 @@
         <v>44887</v>
       </c>
       <c r="B327" t="n">
-        <v>0.929631637340838</v>
+        <v>0.3100105142131365</v>
       </c>
     </row>
     <row r="328">
@@ -3062,7 +3062,7 @@
         <v>44888</v>
       </c>
       <c r="B328" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.3074190443532597</v>
       </c>
     </row>
     <row r="329">
@@ -3070,7 +3070,7 @@
         <v>44889</v>
       </c>
       <c r="B329" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.313608646087015</v>
       </c>
     </row>
     <row r="330">
@@ -3078,7 +3078,7 @@
         <v>44890</v>
       </c>
       <c r="B330" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.3203793834227517</v>
       </c>
     </row>
     <row r="331">
@@ -3086,7 +3086,7 @@
         <v>44891</v>
       </c>
       <c r="B331" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.3369023065555576</v>
       </c>
     </row>
     <row r="332">
@@ -3094,7 +3094,7 @@
         <v>44892</v>
       </c>
       <c r="B332" t="n">
-        <v>1</v>
+        <v>0.3560976404800644</v>
       </c>
     </row>
     <row r="333">
@@ -3102,7 +3102,7 @@
         <v>44893</v>
       </c>
       <c r="B333" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.3351991220744664</v>
       </c>
     </row>
     <row r="334">
@@ -3110,7 +3110,7 @@
         <v>44894</v>
       </c>
       <c r="B334" t="n">
-        <v>0.929631637340838</v>
+        <v>0.3393405306343781</v>
       </c>
     </row>
     <row r="335">
@@ -3118,7 +3118,7 @@
         <v>44895</v>
       </c>
       <c r="B335" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.3342030332569213</v>
       </c>
     </row>
     <row r="336">
@@ -3126,7 +3126,7 @@
         <v>44896</v>
       </c>
       <c r="B336" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.3895231238416346</v>
       </c>
     </row>
     <row r="337">
@@ -3134,7 +3134,7 @@
         <v>44897</v>
       </c>
       <c r="B337" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.4521525846962439</v>
       </c>
     </row>
     <row r="338">
@@ -3142,7 +3142,7 @@
         <v>44898</v>
       </c>
       <c r="B338" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.50711437502339</v>
       </c>
     </row>
     <row r="339">
@@ -3150,7 +3150,7 @@
         <v>44899</v>
       </c>
       <c r="B339" t="n">
-        <v>1</v>
+        <v>0.5457686780519733</v>
       </c>
     </row>
     <row r="340">
@@ -3158,7 +3158,7 @@
         <v>44900</v>
       </c>
       <c r="B340" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.4849663445481792</v>
       </c>
     </row>
     <row r="341">
@@ -3166,7 +3166,7 @@
         <v>44901</v>
       </c>
       <c r="B341" t="n">
-        <v>0.929631637340838</v>
+        <v>0.4772150884613898</v>
       </c>
     </row>
     <row r="342">
@@ -3174,7 +3174,7 @@
         <v>44902</v>
       </c>
       <c r="B342" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.4717710221997995</v>
       </c>
     </row>
     <row r="343">
@@ -3182,7 +3182,7 @@
         <v>44903</v>
       </c>
       <c r="B343" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.4475416759936092</v>
       </c>
     </row>
     <row r="344">
@@ -3190,7 +3190,7 @@
         <v>44904</v>
       </c>
       <c r="B344" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.4187444317552284</v>
       </c>
     </row>
     <row r="345">
@@ -3198,7 +3198,7 @@
         <v>44905</v>
       </c>
       <c r="B345" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.4316083396407697</v>
       </c>
     </row>
     <row r="346">
@@ -3206,7 +3206,7 @@
         <v>44906</v>
       </c>
       <c r="B346" t="n">
-        <v>1</v>
+        <v>0.4150131520725704</v>
       </c>
     </row>
     <row r="347">
@@ -3214,7 +3214,7 @@
         <v>44907</v>
       </c>
       <c r="B347" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.3849901697323777</v>
       </c>
     </row>
     <row r="348">
@@ -3222,7 +3222,7 @@
         <v>44908</v>
       </c>
       <c r="B348" t="n">
-        <v>0.929631637340838</v>
+        <v>0.3946277074747621</v>
       </c>
     </row>
     <row r="349">
@@ -3230,7 +3230,7 @@
         <v>44909</v>
       </c>
       <c r="B349" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.3977086950016922</v>
       </c>
     </row>
     <row r="350">
@@ -3238,7 +3238,7 @@
         <v>44910</v>
       </c>
       <c r="B350" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.3964974865309209</v>
       </c>
     </row>
     <row r="351">
@@ -3246,7 +3246,7 @@
         <v>44911</v>
       </c>
       <c r="B351" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.4037112904402787</v>
       </c>
     </row>
     <row r="352">
@@ -3254,7 +3254,7 @@
         <v>44912</v>
       </c>
       <c r="B352" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.4586924234357351</v>
       </c>
     </row>
     <row r="353">
@@ -3262,7 +3262,7 @@
         <v>44913</v>
       </c>
       <c r="B353" t="n">
-        <v>1</v>
+        <v>0.4767247336264988</v>
       </c>
     </row>
     <row r="354">
@@ -3270,7 +3270,7 @@
         <v>44914</v>
       </c>
       <c r="B354" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.4652255040174597</v>
       </c>
     </row>
     <row r="355">
@@ -3278,7 +3278,7 @@
         <v>44915</v>
       </c>
       <c r="B355" t="n">
-        <v>0.929631637340838</v>
+        <v>0.4778276067660616</v>
       </c>
     </row>
     <row r="356">
@@ -3286,7 +3286,7 @@
         <v>44916</v>
       </c>
       <c r="B356" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.4483673690365894</v>
       </c>
     </row>
     <row r="357">
@@ -3294,7 +3294,7 @@
         <v>44917</v>
       </c>
       <c r="B357" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.4440929057745134</v>
       </c>
     </row>
     <row r="358">
@@ -3302,7 +3302,7 @@
         <v>44918</v>
       </c>
       <c r="B358" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.4264182876689264</v>
       </c>
     </row>
     <row r="359">
@@ -3310,7 +3310,7 @@
         <v>44919</v>
       </c>
       <c r="B359" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.4136041390814603</v>
       </c>
     </row>
     <row r="360">
@@ -3318,7 +3318,7 @@
         <v>44920</v>
       </c>
       <c r="B360" t="n">
-        <v>1</v>
+        <v>0.4057885578188026</v>
       </c>
     </row>
     <row r="361">
@@ -3326,7 +3326,7 @@
         <v>44921</v>
       </c>
       <c r="B361" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.4007125978373919</v>
       </c>
     </row>
     <row r="362">
@@ -3334,7 +3334,7 @@
         <v>44922</v>
       </c>
       <c r="B362" t="n">
-        <v>0.929631637340838</v>
+        <v>0.4118263999747243</v>
       </c>
     </row>
     <row r="363">
@@ -3342,7 +3342,7 @@
         <v>44923</v>
       </c>
       <c r="B363" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.4598646067496052</v>
       </c>
     </row>
     <row r="364">
@@ -3350,7 +3350,7 @@
         <v>44924</v>
       </c>
       <c r="B364" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.5140419888425565</v>
       </c>
     </row>
     <row r="365">
@@ -3358,7 +3358,7 @@
         <v>44925</v>
       </c>
       <c r="B365" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.4997062151733169</v>
       </c>
     </row>
     <row r="366">
@@ -3366,7 +3366,7 @@
         <v>44926</v>
       </c>
       <c r="B366" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.4863880991803729</v>
       </c>
     </row>
     <row r="367">
@@ -3374,7 +3374,7 @@
         <v>44927</v>
       </c>
       <c r="B367" t="n">
-        <v>1</v>
+        <v>0.4546630529317581</v>
       </c>
     </row>
     <row r="368">
@@ -3382,7 +3382,7 @@
         <v>44928</v>
       </c>
       <c r="B368" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.4762066325136961</v>
       </c>
     </row>
     <row r="369">
@@ -3390,7 +3390,7 @@
         <v>44929</v>
       </c>
       <c r="B369" t="n">
-        <v>0.929631637340838</v>
+        <v>0.4507775653348048</v>
       </c>
     </row>
     <row r="370">
@@ -3398,7 +3398,7 @@
         <v>44930</v>
       </c>
       <c r="B370" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.4378576484123746</v>
       </c>
     </row>
     <row r="371">
@@ -3406,7 +3406,7 @@
         <v>44931</v>
       </c>
       <c r="B371" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.4201585054048392</v>
       </c>
     </row>
     <row r="372">
@@ -3414,7 +3414,7 @@
         <v>44932</v>
       </c>
       <c r="B372" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.3896302719182073</v>
       </c>
     </row>
     <row r="373">
@@ -3422,7 +3422,7 @@
         <v>44933</v>
       </c>
       <c r="B373" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.3786791093716644</v>
       </c>
     </row>
     <row r="374">
@@ -3430,7 +3430,7 @@
         <v>44934</v>
       </c>
       <c r="B374" t="n">
-        <v>1</v>
+        <v>0.3909683044882155</v>
       </c>
     </row>
     <row r="375">
@@ -3438,7 +3438,7 @@
         <v>44935</v>
       </c>
       <c r="B375" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.3843888976433022</v>
       </c>
     </row>
     <row r="376">
@@ -3446,7 +3446,7 @@
         <v>44936</v>
       </c>
       <c r="B376" t="n">
-        <v>0.929631637340838</v>
+        <v>0.3784765357951774</v>
       </c>
     </row>
     <row r="377">
@@ -3454,7 +3454,7 @@
         <v>44937</v>
       </c>
       <c r="B377" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.3915367114909422</v>
       </c>
     </row>
     <row r="378">
@@ -3462,7 +3462,7 @@
         <v>44938</v>
       </c>
       <c r="B378" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.3921266012724771</v>
       </c>
     </row>
     <row r="379">
@@ -3470,7 +3470,7 @@
         <v>44939</v>
       </c>
       <c r="B379" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.3657221667069062</v>
       </c>
     </row>
     <row r="380">
@@ -3478,7 +3478,7 @@
         <v>44940</v>
       </c>
       <c r="B380" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.3573951323289312</v>
       </c>
     </row>
     <row r="381">
@@ -3486,7 +3486,7 @@
         <v>44941</v>
       </c>
       <c r="B381" t="n">
-        <v>1</v>
+        <v>0.418191367353886</v>
       </c>
     </row>
     <row r="382">
@@ -3494,7 +3494,7 @@
         <v>44942</v>
       </c>
       <c r="B382" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.4862144566229855</v>
       </c>
     </row>
     <row r="383">
@@ -3502,7 +3502,7 @@
         <v>44943</v>
       </c>
       <c r="B383" t="n">
-        <v>0.929631637340838</v>
+        <v>0.5279579017643795</v>
       </c>
     </row>
     <row r="384">
@@ -3510,7 +3510,7 @@
         <v>44944</v>
       </c>
       <c r="B384" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.5213808949850913</v>
       </c>
     </row>
     <row r="385">
@@ -3518,7 +3518,7 @@
         <v>44945</v>
       </c>
       <c r="B385" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.4702139530560309</v>
       </c>
     </row>
     <row r="386">
@@ -3526,7 +3526,7 @@
         <v>44946</v>
       </c>
       <c r="B386" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.4179982216410626</v>
       </c>
     </row>
     <row r="387">
@@ -3534,7 +3534,7 @@
         <v>44947</v>
       </c>
       <c r="B387" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.4043909436588822</v>
       </c>
     </row>
     <row r="388">
@@ -3542,7 +3542,7 @@
         <v>44948</v>
       </c>
       <c r="B388" t="n">
-        <v>1</v>
+        <v>0.3547388367965457</v>
       </c>
     </row>
     <row r="389">
@@ -3550,7 +3550,7 @@
         <v>44949</v>
       </c>
       <c r="B389" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.3550294118742846</v>
       </c>
     </row>
     <row r="390">
@@ -3558,7 +3558,7 @@
         <v>44950</v>
       </c>
       <c r="B390" t="n">
-        <v>0.929631637340838</v>
+        <v>0.3583320263123655</v>
       </c>
     </row>
     <row r="391">
@@ -3566,7 +3566,7 @@
         <v>44951</v>
       </c>
       <c r="B391" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.3708946143467944</v>
       </c>
     </row>
     <row r="392">
@@ -3574,7 +3574,7 @@
         <v>44952</v>
       </c>
       <c r="B392" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.4109240887928448</v>
       </c>
     </row>
     <row r="393">
@@ -3582,7 +3582,7 @@
         <v>44953</v>
       </c>
       <c r="B393" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.4675909318403365</v>
       </c>
     </row>
     <row r="394">
@@ -3590,7 +3590,7 @@
         <v>44954</v>
       </c>
       <c r="B394" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.4601749788840274</v>
       </c>
     </row>
     <row r="395">
@@ -3598,7 +3598,7 @@
         <v>44955</v>
       </c>
       <c r="B395" t="n">
-        <v>1</v>
+        <v>0.4461561282716701</v>
       </c>
     </row>
     <row r="396">
@@ -3606,7 +3606,7 @@
         <v>44956</v>
       </c>
       <c r="B396" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.4260841867507899</v>
       </c>
     </row>
     <row r="397">
@@ -3614,7 +3614,7 @@
         <v>44957</v>
       </c>
       <c r="B397" t="n">
-        <v>0.929631637340838</v>
+        <v>0.4021802891757464</v>
       </c>
     </row>
     <row r="398">
@@ -3622,7 +3622,7 @@
         <v>44958</v>
       </c>
       <c r="B398" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.3916163069488154</v>
       </c>
     </row>
     <row r="399">
@@ -3630,7 +3630,7 @@
         <v>44959</v>
       </c>
       <c r="B399" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.3906842520441243</v>
       </c>
     </row>
     <row r="400">
@@ -3638,7 +3638,7 @@
         <v>44960</v>
       </c>
       <c r="B400" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.4111302328233253</v>
       </c>
     </row>
     <row r="401">
@@ -3646,7 +3646,7 @@
         <v>44961</v>
       </c>
       <c r="B401" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.4585189122344008</v>
       </c>
     </row>
     <row r="402">
@@ -3654,7 +3654,7 @@
         <v>44962</v>
       </c>
       <c r="B402" t="n">
-        <v>1</v>
+        <v>0.4933762507691871</v>
       </c>
     </row>
     <row r="403">
@@ -3662,7 +3662,7 @@
         <v>44963</v>
       </c>
       <c r="B403" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.4777042779677496</v>
       </c>
     </row>
     <row r="404">
@@ -3670,7 +3670,7 @@
         <v>44964</v>
       </c>
       <c r="B404" t="n">
-        <v>0.929631637340838</v>
+        <v>0.4703490176017395</v>
       </c>
     </row>
     <row r="405">
@@ -3678,7 +3678,7 @@
         <v>44965</v>
       </c>
       <c r="B405" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.4723778255563489</v>
       </c>
     </row>
     <row r="406">
@@ -3686,7 +3686,7 @@
         <v>44966</v>
       </c>
       <c r="B406" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.4709519311793517</v>
       </c>
     </row>
     <row r="407">
@@ -3694,7 +3694,7 @@
         <v>44967</v>
       </c>
       <c r="B407" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.4577931412848868</v>
       </c>
     </row>
     <row r="408">
@@ -3702,7 +3702,7 @@
         <v>44968</v>
       </c>
       <c r="B408" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.4592139907549631</v>
       </c>
     </row>
     <row r="409">
@@ -3710,7 +3710,7 @@
         <v>44969</v>
       </c>
       <c r="B409" t="n">
-        <v>1</v>
+        <v>0.4358158994609815</v>
       </c>
     </row>
     <row r="410">
@@ -3718,7 +3718,7 @@
         <v>44970</v>
       </c>
       <c r="B410" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.3890122711383653</v>
       </c>
     </row>
     <row r="411">
@@ -3726,7 +3726,7 @@
         <v>44971</v>
       </c>
       <c r="B411" t="n">
-        <v>0.929631637340838</v>
+        <v>0.3811592827977491</v>
       </c>
     </row>
     <row r="412">
@@ -3734,7 +3734,7 @@
         <v>44972</v>
       </c>
       <c r="B412" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.3875490879369118</v>
       </c>
     </row>
     <row r="413">
@@ -3742,7 +3742,7 @@
         <v>44973</v>
       </c>
       <c r="B413" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.3744609901419438</v>
       </c>
     </row>
     <row r="414">
@@ -3750,7 +3750,7 @@
         <v>44974</v>
       </c>
       <c r="B414" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.3676485873386415</v>
       </c>
     </row>
     <row r="415">
@@ -3758,7 +3758,7 @@
         <v>44975</v>
       </c>
       <c r="B415" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.3739829134746905</v>
       </c>
     </row>
     <row r="416">
@@ -3766,7 +3766,7 @@
         <v>44976</v>
       </c>
       <c r="B416" t="n">
-        <v>1</v>
+        <v>0.3721352451847129</v>
       </c>
     </row>
     <row r="417">
@@ -3774,7 +3774,7 @@
         <v>44977</v>
       </c>
       <c r="B417" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.3301193101159356</v>
       </c>
     </row>
     <row r="418">
@@ -3782,7 +3782,7 @@
         <v>44978</v>
       </c>
       <c r="B418" t="n">
-        <v>0.929631637340838</v>
+        <v>0.3306146254704626</v>
       </c>
     </row>
     <row r="419">
@@ -3790,7 +3790,7 @@
         <v>44979</v>
       </c>
       <c r="B419" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.3359741220374016</v>
       </c>
     </row>
     <row r="420">
@@ -3798,7 +3798,7 @@
         <v>44980</v>
       </c>
       <c r="B420" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.3360264975893129</v>
       </c>
     </row>
     <row r="421">
@@ -3806,7 +3806,7 @@
         <v>44981</v>
       </c>
       <c r="B421" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.3414189466387918</v>
       </c>
     </row>
     <row r="422">
@@ -3814,7 +3814,7 @@
         <v>44982</v>
       </c>
       <c r="B422" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.3567732299968535</v>
       </c>
     </row>
     <row r="423">
@@ -3822,7 +3822,7 @@
         <v>44983</v>
       </c>
       <c r="B423" t="n">
-        <v>1</v>
+        <v>0.3660904658625239</v>
       </c>
     </row>
     <row r="424">
@@ -3830,7 +3830,7 @@
         <v>44984</v>
       </c>
       <c r="B424" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.334127675746136</v>
       </c>
     </row>
     <row r="425">
@@ -3838,7 +3838,7 @@
         <v>44985</v>
       </c>
       <c r="B425" t="n">
-        <v>0.929631637340838</v>
+        <v>0.3244440489658365</v>
       </c>
     </row>
     <row r="426">
@@ -3846,7 +3846,7 @@
         <v>44986</v>
       </c>
       <c r="B426" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.3209465933078668</v>
       </c>
     </row>
     <row r="427">
@@ -3854,7 +3854,7 @@
         <v>44987</v>
       </c>
       <c r="B427" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.3141515505640576</v>
       </c>
     </row>
     <row r="428">
@@ -3862,7 +3862,7 @@
         <v>44988</v>
       </c>
       <c r="B428" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.3247791560102014</v>
       </c>
     </row>
     <row r="429">
@@ -3870,7 +3870,7 @@
         <v>44989</v>
       </c>
       <c r="B429" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.3298696032957617</v>
       </c>
     </row>
     <row r="430">
@@ -3878,7 +3878,7 @@
         <v>44990</v>
       </c>
       <c r="B430" t="n">
-        <v>1</v>
+        <v>0.33258751691651</v>
       </c>
     </row>
     <row r="431">
@@ -3886,7 +3886,7 @@
         <v>44991</v>
       </c>
       <c r="B431" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.3111696629728426</v>
       </c>
     </row>
     <row r="432">
@@ -3894,7 +3894,7 @@
         <v>44992</v>
       </c>
       <c r="B432" t="n">
-        <v>0.929631637340838</v>
+        <v>0.3080238367440422</v>
       </c>
     </row>
     <row r="433">
@@ -3902,7 +3902,7 @@
         <v>44993</v>
       </c>
       <c r="B433" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.3104202064338499</v>
       </c>
     </row>
     <row r="434">
@@ -3910,7 +3910,7 @@
         <v>44994</v>
       </c>
       <c r="B434" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.3033907667198129</v>
       </c>
     </row>
     <row r="435">
@@ -3918,7 +3918,7 @@
         <v>44995</v>
       </c>
       <c r="B435" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.3035617659030138</v>
       </c>
     </row>
     <row r="436">
@@ -3926,7 +3926,7 @@
         <v>44996</v>
       </c>
       <c r="B436" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.3176502746083581</v>
       </c>
     </row>
     <row r="437">
@@ -3934,7 +3934,7 @@
         <v>44997</v>
       </c>
       <c r="B437" t="n">
-        <v>1</v>
+        <v>0.3342596316943544</v>
       </c>
     </row>
     <row r="438">
@@ -3942,7 +3942,7 @@
         <v>44998</v>
       </c>
       <c r="B438" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.3030801494229152</v>
       </c>
     </row>
     <row r="439">
@@ -3950,7 +3950,7 @@
         <v>44999</v>
       </c>
       <c r="B439" t="n">
-        <v>0.929631637340838</v>
+        <v>0.3024579526650447</v>
       </c>
     </row>
     <row r="440">
@@ -3958,7 +3958,7 @@
         <v>45000</v>
       </c>
       <c r="B440" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.3096448719887313</v>
       </c>
     </row>
     <row r="441">
@@ -3966,7 +3966,7 @@
         <v>45001</v>
       </c>
       <c r="B441" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.3080949972191263</v>
       </c>
     </row>
     <row r="442">
@@ -3974,7 +3974,7 @@
         <v>45002</v>
       </c>
       <c r="B442" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.3105662602265539</v>
       </c>
     </row>
     <row r="443">
@@ -3982,7 +3982,7 @@
         <v>45003</v>
       </c>
       <c r="B443" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.3306208989098528</v>
       </c>
     </row>
     <row r="444">
@@ -3990,7 +3990,7 @@
         <v>45004</v>
       </c>
       <c r="B444" t="n">
-        <v>1</v>
+        <v>0.351014680590901</v>
       </c>
     </row>
     <row r="445">
@@ -3998,7 +3998,7 @@
         <v>45005</v>
       </c>
       <c r="B445" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.3238983381668841</v>
       </c>
     </row>
     <row r="446">
@@ -4006,7 +4006,7 @@
         <v>45006</v>
       </c>
       <c r="B446" t="n">
-        <v>0.929631637340838</v>
+        <v>0.3170125474990155</v>
       </c>
     </row>
     <row r="447">
@@ -4014,7 +4014,7 @@
         <v>45007</v>
       </c>
       <c r="B447" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.3238143647163363</v>
       </c>
     </row>
     <row r="448">
@@ -4022,7 +4022,7 @@
         <v>45008</v>
       </c>
       <c r="B448" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.3380583915219926</v>
       </c>
     </row>
     <row r="449">
@@ -4030,7 +4030,7 @@
         <v>45009</v>
       </c>
       <c r="B449" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.331256689273634</v>
       </c>
     </row>
     <row r="450">
@@ -4038,7 +4038,7 @@
         <v>45010</v>
       </c>
       <c r="B450" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.3401945095546124</v>
       </c>
     </row>
     <row r="451">
@@ -4046,7 +4046,7 @@
         <v>45011</v>
       </c>
       <c r="B451" t="n">
-        <v>1</v>
+        <v>0.3430343664100794</v>
       </c>
     </row>
     <row r="452">
@@ -4054,7 +4054,7 @@
         <v>45012</v>
       </c>
       <c r="B452" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.3289812842237159</v>
       </c>
     </row>
     <row r="453">
@@ -4062,7 +4062,7 @@
         <v>45013</v>
       </c>
       <c r="B453" t="n">
-        <v>0.929631637340838</v>
+        <v>0.3460842381302529</v>
       </c>
     </row>
     <row r="454">
@@ -4070,7 +4070,7 @@
         <v>45014</v>
       </c>
       <c r="B454" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.3568639825291822</v>
       </c>
     </row>
     <row r="455">
@@ -4078,7 +4078,7 @@
         <v>45015</v>
       </c>
       <c r="B455" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.3365743914525042</v>
       </c>
     </row>
     <row r="456">
@@ -4086,7 +4086,7 @@
         <v>45016</v>
       </c>
       <c r="B456" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.3396733584058486</v>
       </c>
     </row>
     <row r="457">
@@ -4094,7 +4094,7 @@
         <v>45017</v>
       </c>
       <c r="B457" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.3593993291079182</v>
       </c>
     </row>
     <row r="458">
@@ -4102,7 +4102,7 @@
         <v>45018</v>
       </c>
       <c r="B458" t="n">
-        <v>1</v>
+        <v>0.389935425062865</v>
       </c>
     </row>
     <row r="459">
@@ -4110,7 +4110,7 @@
         <v>45019</v>
       </c>
       <c r="B459" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.3684398615394599</v>
       </c>
     </row>
     <row r="460">
@@ -4118,7 +4118,7 @@
         <v>45020</v>
       </c>
       <c r="B460" t="n">
-        <v>0.929631637340838</v>
+        <v>0.3549909394971313</v>
       </c>
     </row>
     <row r="461">
@@ -4126,7 +4126,7 @@
         <v>45021</v>
       </c>
       <c r="B461" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.367866998681888</v>
       </c>
     </row>
     <row r="462">
@@ -4134,7 +4134,7 @@
         <v>45022</v>
       </c>
       <c r="B462" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.3261075761229398</v>
       </c>
     </row>
     <row r="463">
@@ -4142,7 +4142,7 @@
         <v>45023</v>
       </c>
       <c r="B463" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.3020847978572995</v>
       </c>
     </row>
     <row r="464">
@@ -4150,7 +4150,7 @@
         <v>45024</v>
       </c>
       <c r="B464" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.3040107986976439</v>
       </c>
     </row>
     <row r="465">
@@ -4158,7 +4158,7 @@
         <v>45025</v>
       </c>
       <c r="B465" t="n">
-        <v>1</v>
+        <v>0.3253506150917956</v>
       </c>
     </row>
     <row r="466">
@@ -4166,7 +4166,7 @@
         <v>45026</v>
       </c>
       <c r="B466" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.3292139606931399</v>
       </c>
     </row>
     <row r="467">
@@ -4174,7 +4174,7 @@
         <v>45027</v>
       </c>
       <c r="B467" t="n">
-        <v>0.929631637340838</v>
+        <v>0.3474927882674224</v>
       </c>
     </row>
     <row r="468">
@@ -4182,7 +4182,7 @@
         <v>45028</v>
       </c>
       <c r="B468" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.3456673629463157</v>
       </c>
     </row>
     <row r="469">
@@ -4190,7 +4190,7 @@
         <v>45029</v>
       </c>
       <c r="B469" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.3394787294664209</v>
       </c>
     </row>
     <row r="470">
@@ -4198,7 +4198,7 @@
         <v>45030</v>
       </c>
       <c r="B470" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.3442670630529567</v>
       </c>
     </row>
     <row r="471">
@@ -4206,7 +4206,7 @@
         <v>45031</v>
       </c>
       <c r="B471" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.3477867184963265</v>
       </c>
     </row>
     <row r="472">
@@ -4214,7 +4214,7 @@
         <v>45032</v>
       </c>
       <c r="B472" t="n">
-        <v>1</v>
+        <v>0.3533197565230095</v>
       </c>
     </row>
     <row r="473">
@@ -4222,7 +4222,7 @@
         <v>45033</v>
       </c>
       <c r="B473" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.3379995244471813</v>
       </c>
     </row>
     <row r="474">
@@ -4230,7 +4230,7 @@
         <v>45034</v>
       </c>
       <c r="B474" t="n">
-        <v>0.929631637340838</v>
+        <v>0.3510636880350987</v>
       </c>
     </row>
     <row r="475">
@@ -4238,7 +4238,7 @@
         <v>45035</v>
       </c>
       <c r="B475" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.3574334581240656</v>
       </c>
     </row>
     <row r="476">
@@ -4246,7 +4246,7 @@
         <v>45036</v>
       </c>
       <c r="B476" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.3787624559134751</v>
       </c>
     </row>
     <row r="477">
@@ -4254,7 +4254,7 @@
         <v>45037</v>
       </c>
       <c r="B477" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.4155141308188333</v>
       </c>
     </row>
     <row r="478">
@@ -4262,7 +4262,7 @@
         <v>45038</v>
       </c>
       <c r="B478" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.3913098629822123</v>
       </c>
     </row>
     <row r="479">
@@ -4270,7 +4270,7 @@
         <v>45039</v>
       </c>
       <c r="B479" t="n">
-        <v>1</v>
+        <v>0.4358589839000851</v>
       </c>
     </row>
     <row r="480">
@@ -4278,7 +4278,7 @@
         <v>45040</v>
       </c>
       <c r="B480" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.3542372607022395</v>
       </c>
     </row>
     <row r="481">
@@ -4286,7 +4286,7 @@
         <v>45041</v>
       </c>
       <c r="B481" t="n">
-        <v>0.929631637340838</v>
+        <v>0.3017977727532758</v>
       </c>
     </row>
     <row r="482">
@@ -4294,7 +4294,7 @@
         <v>45042</v>
       </c>
       <c r="B482" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.2978475946005603</v>
       </c>
     </row>
     <row r="483">
@@ -4302,7 +4302,7 @@
         <v>45043</v>
       </c>
       <c r="B483" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.3149175902913559</v>
       </c>
     </row>
     <row r="484">
@@ -4310,7 +4310,7 @@
         <v>45044</v>
       </c>
       <c r="B484" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.3386065843290953</v>
       </c>
     </row>
     <row r="485">
@@ -4318,7 +4318,7 @@
         <v>45045</v>
       </c>
       <c r="B485" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.3448207449335263</v>
       </c>
     </row>
     <row r="486">
@@ -4326,7 +4326,7 @@
         <v>45046</v>
       </c>
       <c r="B486" t="n">
-        <v>1</v>
+        <v>0.3095807931683591</v>
       </c>
     </row>
     <row r="487">
@@ -4334,7 +4334,7 @@
         <v>45047</v>
       </c>
       <c r="B487" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.3059138041702563</v>
       </c>
     </row>
     <row r="488">
@@ -4342,7 +4342,7 @@
         <v>45048</v>
       </c>
       <c r="B488" t="n">
-        <v>0.929631637340838</v>
+        <v>0.3400221474615816</v>
       </c>
     </row>
     <row r="489">
@@ -4350,7 +4350,7 @@
         <v>45049</v>
       </c>
       <c r="B489" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.3847009999650725</v>
       </c>
     </row>
     <row r="490">
@@ -4358,7 +4358,7 @@
         <v>45050</v>
       </c>
       <c r="B490" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.3957103259520928</v>
       </c>
     </row>
     <row r="491">
@@ -4366,7 +4366,7 @@
         <v>45051</v>
       </c>
       <c r="B491" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.4409060232399201</v>
       </c>
     </row>
     <row r="492">
@@ -4374,7 +4374,7 @@
         <v>45052</v>
       </c>
       <c r="B492" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.5227355909575091</v>
       </c>
     </row>
     <row r="493">
@@ -4382,7 +4382,7 @@
         <v>45053</v>
       </c>
       <c r="B493" t="n">
-        <v>1</v>
+        <v>0.5066608322841091</v>
       </c>
     </row>
     <row r="494">
@@ -4390,7 +4390,7 @@
         <v>45054</v>
       </c>
       <c r="B494" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.334201132181361</v>
       </c>
     </row>
     <row r="495">
@@ -4398,7 +4398,7 @@
         <v>45055</v>
       </c>
       <c r="B495" t="n">
-        <v>0.929631637340838</v>
+        <v>0.3111616505143794</v>
       </c>
     </row>
     <row r="496">
@@ -4406,7 +4406,7 @@
         <v>45056</v>
       </c>
       <c r="B496" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.3361075198363728</v>
       </c>
     </row>
     <row r="497">
@@ -4414,7 +4414,7 @@
         <v>45057</v>
       </c>
       <c r="B497" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.3343992428229527</v>
       </c>
     </row>
     <row r="498">
@@ -4422,7 +4422,7 @@
         <v>45058</v>
       </c>
       <c r="B498" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.3231080823897565</v>
       </c>
     </row>
     <row r="499">
@@ -4430,7 +4430,7 @@
         <v>45059</v>
       </c>
       <c r="B499" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.3364408762872855</v>
       </c>
     </row>
     <row r="500">
@@ -4438,7 +4438,7 @@
         <v>45060</v>
       </c>
       <c r="B500" t="n">
-        <v>1</v>
+        <v>0.3298445182161316</v>
       </c>
     </row>
     <row r="501">
@@ -4446,7 +4446,7 @@
         <v>45061</v>
       </c>
       <c r="B501" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.3231562596635774</v>
       </c>
     </row>
     <row r="502">
@@ -4454,7 +4454,7 @@
         <v>45062</v>
       </c>
       <c r="B502" t="n">
-        <v>0.929631637340838</v>
+        <v>0.3558433291574664</v>
       </c>
     </row>
     <row r="503">
@@ -4462,7 +4462,7 @@
         <v>45063</v>
       </c>
       <c r="B503" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.4296490593586165</v>
       </c>
     </row>
     <row r="504">
@@ -4470,7 +4470,7 @@
         <v>45064</v>
       </c>
       <c r="B504" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.4972367037975281</v>
       </c>
     </row>
     <row r="505">
@@ -4478,7 +4478,7 @@
         <v>45065</v>
       </c>
       <c r="B505" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.531958212758216</v>
       </c>
     </row>
     <row r="506">
@@ -4486,7 +4486,7 @@
         <v>45066</v>
       </c>
       <c r="B506" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.6170482134621298</v>
       </c>
     </row>
     <row r="507">
@@ -4494,7 +4494,7 @@
         <v>45067</v>
       </c>
       <c r="B507" t="n">
-        <v>1</v>
+        <v>0.7146049155535017</v>
       </c>
     </row>
     <row r="508">
@@ -4502,7 +4502,7 @@
         <v>45068</v>
       </c>
       <c r="B508" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.6364898641492615</v>
       </c>
     </row>
     <row r="509">
@@ -4510,7 +4510,7 @@
         <v>45069</v>
       </c>
       <c r="B509" t="n">
-        <v>0.929631637340838</v>
+        <v>0.4228772083833984</v>
       </c>
     </row>
     <row r="510">
@@ -4518,7 +4518,7 @@
         <v>45070</v>
       </c>
       <c r="B510" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.3657464262463105</v>
       </c>
     </row>
     <row r="511">
@@ -4526,7 +4526,7 @@
         <v>45071</v>
       </c>
       <c r="B511" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.4053741783581674</v>
       </c>
     </row>
     <row r="512">
@@ -4534,7 +4534,7 @@
         <v>45072</v>
       </c>
       <c r="B512" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.4859501558386887</v>
       </c>
     </row>
     <row r="513">
@@ -4542,7 +4542,7 @@
         <v>45073</v>
       </c>
       <c r="B513" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.6023843057084782</v>
       </c>
     </row>
     <row r="514">
@@ -4550,7 +4550,7 @@
         <v>45074</v>
       </c>
       <c r="B514" t="n">
-        <v>1</v>
+        <v>0.6620153956509316</v>
       </c>
     </row>
     <row r="515">
@@ -4558,7 +4558,7 @@
         <v>45075</v>
       </c>
       <c r="B515" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.6369263627220134</v>
       </c>
     </row>
     <row r="516">
@@ -4566,7 +4566,7 @@
         <v>45076</v>
       </c>
       <c r="B516" t="n">
-        <v>0.929631637340838</v>
+        <v>0.7025100082482463</v>
       </c>
     </row>
     <row r="517">
@@ -4574,7 +4574,7 @@
         <v>45077</v>
       </c>
       <c r="B517" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.7818853014899841</v>
       </c>
     </row>
     <row r="518">
@@ -4582,7 +4582,7 @@
         <v>45078</v>
       </c>
       <c r="B518" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.836754861193642</v>
       </c>
     </row>
     <row r="519">
@@ -4590,7 +4590,7 @@
         <v>45079</v>
       </c>
       <c r="B519" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.8639296078785607</v>
       </c>
     </row>
     <row r="520">
@@ -4598,7 +4598,7 @@
         <v>45080</v>
       </c>
       <c r="B520" t="n">
-        <v>0.9841316268692997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521">
@@ -4606,7 +4606,7 @@
         <v>45081</v>
       </c>
       <c r="B521" t="n">
-        <v>1</v>
+        <v>0.9419473867058212</v>
       </c>
     </row>
     <row r="522">
@@ -4614,7 +4614,7 @@
         <v>45082</v>
       </c>
       <c r="B522" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.8081618870722829</v>
       </c>
     </row>
     <row r="523">
@@ -4622,7 +4622,7 @@
         <v>45083</v>
       </c>
       <c r="B523" t="n">
-        <v>0.929631637340838</v>
+        <v>0.7217684146312005</v>
       </c>
     </row>
     <row r="524">
@@ -4630,7 +4630,7 @@
         <v>45084</v>
       </c>
       <c r="B524" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.6333476342753629</v>
       </c>
     </row>
     <row r="525">
@@ -4638,7 +4638,7 @@
         <v>45085</v>
       </c>
       <c r="B525" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.5833437437543165</v>
       </c>
     </row>
     <row r="526">
@@ -4646,7 +4646,7 @@
         <v>45086</v>
       </c>
       <c r="B526" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.5381172989169755</v>
       </c>
     </row>
     <row r="527">
@@ -4654,7 +4654,7 @@
         <v>45087</v>
       </c>
       <c r="B527" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.6252646045884244</v>
       </c>
     </row>
     <row r="528">
@@ -4662,7 +4662,7 @@
         <v>45088</v>
       </c>
       <c r="B528" t="n">
-        <v>1</v>
+        <v>0.7093312427970795</v>
       </c>
     </row>
     <row r="529">
@@ -4670,7 +4670,7 @@
         <v>45089</v>
       </c>
       <c r="B529" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.6945653744249023</v>
       </c>
     </row>
     <row r="530">
@@ -4678,7 +4678,7 @@
         <v>45090</v>
       </c>
       <c r="B530" t="n">
-        <v>0.929631637340838</v>
+        <v>0.6448781845167528</v>
       </c>
     </row>
     <row r="531">
@@ -4686,7 +4686,7 @@
         <v>45091</v>
       </c>
       <c r="B531" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.5788531979775126</v>
       </c>
     </row>
     <row r="532">
@@ -4694,7 +4694,7 @@
         <v>45092</v>
       </c>
       <c r="B532" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.6062214282194068</v>
       </c>
     </row>
     <row r="533">
@@ -4702,7 +4702,7 @@
         <v>45093</v>
       </c>
       <c r="B533" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.6034397550791802</v>
       </c>
     </row>
     <row r="534">
@@ -4710,7 +4710,7 @@
         <v>45094</v>
       </c>
       <c r="B534" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.6555168096285519</v>
       </c>
     </row>
     <row r="535">
@@ -4718,7 +4718,7 @@
         <v>45095</v>
       </c>
       <c r="B535" t="n">
-        <v>1</v>
+        <v>0.6938595895051621</v>
       </c>
     </row>
     <row r="536">
@@ -4726,7 +4726,7 @@
         <v>45096</v>
       </c>
       <c r="B536" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.6461617194354591</v>
       </c>
     </row>
     <row r="537">
@@ -4734,7 +4734,7 @@
         <v>45097</v>
       </c>
       <c r="B537" t="n">
-        <v>0.929631637340838</v>
+        <v>0.6391819275476515</v>
       </c>
     </row>
     <row r="538">
@@ -4742,7 +4742,7 @@
         <v>45098</v>
       </c>
       <c r="B538" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.6644762193862499</v>
       </c>
     </row>
     <row r="539">
@@ -4750,7 +4750,7 @@
         <v>45099</v>
       </c>
       <c r="B539" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.660439172829739</v>
       </c>
     </row>
     <row r="540">
@@ -4758,7 +4758,7 @@
         <v>45100</v>
       </c>
       <c r="B540" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.5472130801428223</v>
       </c>
     </row>
     <row r="541">
@@ -4766,7 +4766,7 @@
         <v>45101</v>
       </c>
       <c r="B541" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.5139804443158633</v>
       </c>
     </row>
     <row r="542">
@@ -4774,7 +4774,7 @@
         <v>45102</v>
       </c>
       <c r="B542" t="n">
-        <v>1</v>
+        <v>0.4519443295032114</v>
       </c>
     </row>
     <row r="543">
@@ -4782,7 +4782,7 @@
         <v>45103</v>
       </c>
       <c r="B543" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.4468568059677755</v>
       </c>
     </row>
     <row r="544">
@@ -4790,7 +4790,7 @@
         <v>45104</v>
       </c>
       <c r="B544" t="n">
-        <v>0.929631637340838</v>
+        <v>0.4490650235942069</v>
       </c>
     </row>
     <row r="545">
@@ -4798,7 +4798,7 @@
         <v>45105</v>
       </c>
       <c r="B545" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.5158966618672872</v>
       </c>
     </row>
     <row r="546">
@@ -4806,7 +4806,7 @@
         <v>45106</v>
       </c>
       <c r="B546" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.6198315411862226</v>
       </c>
     </row>
     <row r="547">
@@ -4814,7 +4814,7 @@
         <v>45107</v>
       </c>
       <c r="B547" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.7225312640975113</v>
       </c>
     </row>
     <row r="548">
@@ -4822,7 +4822,7 @@
         <v>45108</v>
       </c>
       <c r="B548" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.8565793763892378</v>
       </c>
     </row>
     <row r="549">
@@ -4830,7 +4830,7 @@
         <v>45109</v>
       </c>
       <c r="B549" t="n">
-        <v>1</v>
+        <v>0.8967439717798732</v>
       </c>
     </row>
     <row r="550">
@@ -4838,7 +4838,7 @@
         <v>45110</v>
       </c>
       <c r="B550" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.7736168482989377</v>
       </c>
     </row>
     <row r="551">
@@ -4846,7 +4846,7 @@
         <v>45111</v>
       </c>
       <c r="B551" t="n">
-        <v>0.929631637340838</v>
+        <v>0.7383451846690418</v>
       </c>
     </row>
     <row r="552">
@@ -4854,7 +4854,7 @@
         <v>45112</v>
       </c>
       <c r="B552" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.7393232180473078</v>
       </c>
     </row>
     <row r="553">
@@ -4862,7 +4862,7 @@
         <v>45113</v>
       </c>
       <c r="B553" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.7903224896144977</v>
       </c>
     </row>
     <row r="554">
@@ -4870,7 +4870,7 @@
         <v>45114</v>
       </c>
       <c r="B554" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.8420141530025845</v>
       </c>
     </row>
     <row r="555">
@@ -4878,7 +4878,7 @@
         <v>45115</v>
       </c>
       <c r="B555" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.8966709477281931</v>
       </c>
     </row>
     <row r="556">
@@ -4886,7 +4886,7 @@
         <v>45116</v>
       </c>
       <c r="B556" t="n">
-        <v>1</v>
+        <v>0.9032713093845487</v>
       </c>
     </row>
     <row r="557">
@@ -4894,7 +4894,7 @@
         <v>45117</v>
       </c>
       <c r="B557" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.8936881544299348</v>
       </c>
     </row>
     <row r="558">
@@ -4902,7 +4902,7 @@
         <v>45118</v>
       </c>
       <c r="B558" t="n">
-        <v>0.929631637340838</v>
+        <v>0.90874218611406</v>
       </c>
     </row>
     <row r="559">
@@ -4910,7 +4910,7 @@
         <v>45119</v>
       </c>
       <c r="B559" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.9124199034998592</v>
       </c>
     </row>
     <row r="560">
@@ -4918,7 +4918,7 @@
         <v>45120</v>
       </c>
       <c r="B560" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.9174711909502303</v>
       </c>
     </row>
     <row r="561">
@@ -4926,7 +4926,7 @@
         <v>45121</v>
       </c>
       <c r="B561" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.9170292910400115</v>
       </c>
     </row>
     <row r="562">
@@ -4934,7 +4934,7 @@
         <v>45122</v>
       </c>
       <c r="B562" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.9409313678005542</v>
       </c>
     </row>
     <row r="563">
@@ -4942,7 +4942,7 @@
         <v>45123</v>
       </c>
       <c r="B563" t="n">
-        <v>1</v>
+        <v>0.934537850788116</v>
       </c>
     </row>
     <row r="564">
@@ -4950,7 +4950,7 @@
         <v>45124</v>
       </c>
       <c r="B564" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.8274556355689708</v>
       </c>
     </row>
     <row r="565">
@@ -4958,7 +4958,7 @@
         <v>45125</v>
       </c>
       <c r="B565" t="n">
-        <v>0.929631637340838</v>
+        <v>0.5961982344690099</v>
       </c>
     </row>
     <row r="566">
@@ -4966,7 +4966,7 @@
         <v>45126</v>
       </c>
       <c r="B566" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.5819032360038344</v>
       </c>
     </row>
     <row r="567">
@@ -4974,7 +4974,7 @@
         <v>45127</v>
       </c>
       <c r="B567" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.6177139271607981</v>
       </c>
     </row>
     <row r="568">
@@ -4982,7 +4982,7 @@
         <v>45128</v>
       </c>
       <c r="B568" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.6882105967978507</v>
       </c>
     </row>
     <row r="569">
@@ -4990,7 +4990,7 @@
         <v>45129</v>
       </c>
       <c r="B569" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.7942673785597198</v>
       </c>
     </row>
     <row r="570">
@@ -4998,7 +4998,7 @@
         <v>45130</v>
       </c>
       <c r="B570" t="n">
-        <v>1</v>
+        <v>0.8613841307240792</v>
       </c>
     </row>
     <row r="571">
@@ -5006,7 +5006,7 @@
         <v>45131</v>
       </c>
       <c r="B571" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.8712364572288425</v>
       </c>
     </row>
     <row r="572">
@@ -5014,7 +5014,7 @@
         <v>45132</v>
       </c>
       <c r="B572" t="n">
-        <v>0.929631637340838</v>
+        <v>0.8987902013837309</v>
       </c>
     </row>
     <row r="573">
@@ -5022,7 +5022,7 @@
         <v>45133</v>
       </c>
       <c r="B573" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.9263312337229757</v>
       </c>
     </row>
     <row r="574">
@@ -5030,7 +5030,7 @@
         <v>45134</v>
       </c>
       <c r="B574" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.9725040815262506</v>
       </c>
     </row>
     <row r="575">
@@ -5038,7 +5038,7 @@
         <v>45135</v>
       </c>
       <c r="B575" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.9964438921015361</v>
       </c>
     </row>
     <row r="576">
@@ -5046,7 +5046,7 @@
         <v>45136</v>
       </c>
       <c r="B576" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.9727576338292803</v>
       </c>
     </row>
     <row r="577">
@@ -5054,7 +5054,7 @@
         <v>45137</v>
       </c>
       <c r="B577" t="n">
-        <v>1</v>
+        <v>0.8978217170260508</v>
       </c>
     </row>
     <row r="578">
@@ -5062,7 +5062,7 @@
         <v>45138</v>
       </c>
       <c r="B578" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.7704117386455508</v>
       </c>
     </row>
     <row r="579">
@@ -5070,7 +5070,7 @@
         <v>45139</v>
       </c>
       <c r="B579" t="n">
-        <v>0.929631637340838</v>
+        <v>0.7208917773695092</v>
       </c>
     </row>
     <row r="580">
@@ -5078,7 +5078,7 @@
         <v>45140</v>
       </c>
       <c r="B580" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.6989652982262647</v>
       </c>
     </row>
     <row r="581">
@@ -5086,7 +5086,7 @@
         <v>45141</v>
       </c>
       <c r="B581" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.7104530487568093</v>
       </c>
     </row>
     <row r="582">
@@ -5094,7 +5094,7 @@
         <v>45142</v>
       </c>
       <c r="B582" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.7074701904908874</v>
       </c>
     </row>
     <row r="583">
@@ -5102,7 +5102,7 @@
         <v>45143</v>
       </c>
       <c r="B583" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.6810934410541367</v>
       </c>
     </row>
     <row r="584">
@@ -5110,7 +5110,7 @@
         <v>45144</v>
       </c>
       <c r="B584" t="n">
-        <v>1</v>
+        <v>0.6664473618491008</v>
       </c>
     </row>
     <row r="585">
@@ -5118,7 +5118,7 @@
         <v>45145</v>
       </c>
       <c r="B585" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.6319809530850025</v>
       </c>
     </row>
     <row r="586">
@@ -5126,7 +5126,7 @@
         <v>45146</v>
       </c>
       <c r="B586" t="n">
-        <v>0.929631637340838</v>
+        <v>0.6232330024407461</v>
       </c>
     </row>
     <row r="587">
@@ -5134,7 +5134,7 @@
         <v>45147</v>
       </c>
       <c r="B587" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.6692180330358867</v>
       </c>
     </row>
     <row r="588">
@@ -5142,7 +5142,7 @@
         <v>45148</v>
       </c>
       <c r="B588" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.6940326883534581</v>
       </c>
     </row>
     <row r="589">
@@ -5150,7 +5150,7 @@
         <v>45149</v>
       </c>
       <c r="B589" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.6731810524752591</v>
       </c>
     </row>
     <row r="590">
@@ -5158,7 +5158,7 @@
         <v>45150</v>
       </c>
       <c r="B590" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.6740586588859199</v>
       </c>
     </row>
     <row r="591">
@@ -5166,7 +5166,7 @@
         <v>45151</v>
       </c>
       <c r="B591" t="n">
-        <v>1</v>
+        <v>0.7346926714781754</v>
       </c>
     </row>
     <row r="592">
@@ -5174,7 +5174,7 @@
         <v>45152</v>
       </c>
       <c r="B592" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.6687452616938945</v>
       </c>
     </row>
     <row r="593">
@@ -5182,7 +5182,7 @@
         <v>45153</v>
       </c>
       <c r="B593" t="n">
-        <v>0.929631637340838</v>
+        <v>0.6458275577237648</v>
       </c>
     </row>
     <row r="594">
@@ -5190,7 +5190,7 @@
         <v>45154</v>
       </c>
       <c r="B594" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.6982198866806651</v>
       </c>
     </row>
     <row r="595">
@@ -5198,7 +5198,7 @@
         <v>45155</v>
       </c>
       <c r="B595" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.7768067252662517</v>
       </c>
     </row>
     <row r="596">
@@ -5206,7 +5206,7 @@
         <v>45156</v>
       </c>
       <c r="B596" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.772543275989627</v>
       </c>
     </row>
     <row r="597">
@@ -5214,7 +5214,7 @@
         <v>45157</v>
       </c>
       <c r="B597" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.7483665316459971</v>
       </c>
     </row>
     <row r="598">
@@ -5222,7 +5222,7 @@
         <v>45158</v>
       </c>
       <c r="B598" t="n">
-        <v>1</v>
+        <v>0.7040800905212572</v>
       </c>
     </row>
     <row r="599">
@@ -5230,7 +5230,7 @@
         <v>45159</v>
       </c>
       <c r="B599" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.6901590205400001</v>
       </c>
     </row>
     <row r="600">
@@ -5238,7 +5238,7 @@
         <v>45160</v>
       </c>
       <c r="B600" t="n">
-        <v>0.929631637340838</v>
+        <v>0.7256658407900416</v>
       </c>
     </row>
     <row r="601">
@@ -5246,7 +5246,7 @@
         <v>45161</v>
       </c>
       <c r="B601" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.7025171350125567</v>
       </c>
     </row>
     <row r="602">
@@ -5254,7 +5254,7 @@
         <v>45162</v>
       </c>
       <c r="B602" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.6618597043951249</v>
       </c>
     </row>
     <row r="603">
@@ -5262,7 +5262,7 @@
         <v>45163</v>
       </c>
       <c r="B603" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.6603729467449406</v>
       </c>
     </row>
     <row r="604">
@@ -5270,7 +5270,7 @@
         <v>45164</v>
       </c>
       <c r="B604" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.7083167405992571</v>
       </c>
     </row>
     <row r="605">
@@ -5278,7 +5278,7 @@
         <v>45165</v>
       </c>
       <c r="B605" t="n">
-        <v>1</v>
+        <v>0.709631246545712</v>
       </c>
     </row>
     <row r="606">
@@ -5286,7 +5286,7 @@
         <v>45166</v>
       </c>
       <c r="B606" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.5450691124366521</v>
       </c>
     </row>
     <row r="607">
@@ -5294,7 +5294,7 @@
         <v>45167</v>
       </c>
       <c r="B607" t="n">
-        <v>0.929631637340838</v>
+        <v>0.4228559854303899</v>
       </c>
     </row>
     <row r="608">
@@ -5302,7 +5302,7 @@
         <v>45168</v>
       </c>
       <c r="B608" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.4135755559970304</v>
       </c>
     </row>
     <row r="609">
@@ -5310,7 +5310,7 @@
         <v>45169</v>
       </c>
       <c r="B609" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.4465821292673083</v>
       </c>
     </row>
     <row r="610">
@@ -5318,7 +5318,7 @@
         <v>45170</v>
       </c>
       <c r="B610" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.5206779632261416</v>
       </c>
     </row>
     <row r="611">
@@ -5326,7 +5326,7 @@
         <v>45171</v>
       </c>
       <c r="B611" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.5900914180864123</v>
       </c>
     </row>
     <row r="612">
@@ -5334,7 +5334,7 @@
         <v>45172</v>
       </c>
       <c r="B612" t="n">
-        <v>1</v>
+        <v>0.4537657691114516</v>
       </c>
     </row>
     <row r="613">
@@ -5342,7 +5342,7 @@
         <v>45173</v>
       </c>
       <c r="B613" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.3958862455669107</v>
       </c>
     </row>
     <row r="614">
@@ -5350,7 +5350,7 @@
         <v>45174</v>
       </c>
       <c r="B614" t="n">
-        <v>0.929631637340838</v>
+        <v>0.4731129515287328</v>
       </c>
     </row>
     <row r="615">
@@ -5358,7 +5358,7 @@
         <v>45175</v>
       </c>
       <c r="B615" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.5589469137112431</v>
       </c>
     </row>
     <row r="616">
@@ -5366,7 +5366,7 @@
         <v>45176</v>
       </c>
       <c r="B616" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.5986811866238769</v>
       </c>
     </row>
     <row r="617">
@@ -5374,7 +5374,7 @@
         <v>45177</v>
       </c>
       <c r="B617" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.5747625770811536</v>
       </c>
     </row>
     <row r="618">
@@ -5382,7 +5382,7 @@
         <v>45178</v>
       </c>
       <c r="B618" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.5986150618466006</v>
       </c>
     </row>
     <row r="619">
@@ -5390,7 +5390,7 @@
         <v>45179</v>
       </c>
       <c r="B619" t="n">
-        <v>1</v>
+        <v>0.593707590982436</v>
       </c>
     </row>
     <row r="620">
@@ -5398,7 +5398,7 @@
         <v>45180</v>
       </c>
       <c r="B620" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.494237164650378</v>
       </c>
     </row>
     <row r="621">
@@ -5406,7 +5406,7 @@
         <v>45181</v>
       </c>
       <c r="B621" t="n">
-        <v>0.929631637340838</v>
+        <v>0.4698537911877042</v>
       </c>
     </row>
     <row r="622">
@@ -5414,7 +5414,7 @@
         <v>45182</v>
       </c>
       <c r="B622" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.4412481416959805</v>
       </c>
     </row>
     <row r="623">
@@ -5422,7 +5422,7 @@
         <v>45183</v>
       </c>
       <c r="B623" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.3796999027351827</v>
       </c>
     </row>
     <row r="624">
@@ -5430,7 +5430,7 @@
         <v>45184</v>
       </c>
       <c r="B624" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.3700199835606216</v>
       </c>
     </row>
     <row r="625">
@@ -5438,7 +5438,7 @@
         <v>45185</v>
       </c>
       <c r="B625" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.4420647279559048</v>
       </c>
     </row>
     <row r="626">
@@ -5446,7 +5446,7 @@
         <v>45186</v>
       </c>
       <c r="B626" t="n">
-        <v>1</v>
+        <v>0.515894661569942</v>
       </c>
     </row>
     <row r="627">
@@ -5454,7 +5454,7 @@
         <v>45187</v>
       </c>
       <c r="B627" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.4852105985354191</v>
       </c>
     </row>
     <row r="628">
@@ -5462,7 +5462,7 @@
         <v>45188</v>
       </c>
       <c r="B628" t="n">
-        <v>0.929631637340838</v>
+        <v>0.5235796658570731</v>
       </c>
     </row>
     <row r="629">
@@ -5470,7 +5470,7 @@
         <v>45189</v>
       </c>
       <c r="B629" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.5759195921375435</v>
       </c>
     </row>
     <row r="630">
@@ -5478,7 +5478,7 @@
         <v>45190</v>
       </c>
       <c r="B630" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.6250911017771268</v>
       </c>
     </row>
     <row r="631">
@@ -5486,7 +5486,7 @@
         <v>45191</v>
       </c>
       <c r="B631" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.6408371340833898</v>
       </c>
     </row>
     <row r="632">
@@ -5494,7 +5494,7 @@
         <v>45192</v>
       </c>
       <c r="B632" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.723213650960019</v>
       </c>
     </row>
     <row r="633">
@@ -5502,7 +5502,7 @@
         <v>45193</v>
       </c>
       <c r="B633" t="n">
-        <v>1</v>
+        <v>0.7489426751428462</v>
       </c>
     </row>
     <row r="634">
@@ -5510,7 +5510,7 @@
         <v>45194</v>
       </c>
       <c r="B634" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.6615225465805843</v>
       </c>
     </row>
     <row r="635">
@@ -5518,7 +5518,7 @@
         <v>45195</v>
       </c>
       <c r="B635" t="n">
-        <v>0.929631637340838</v>
+        <v>0.6155862753418845</v>
       </c>
     </row>
     <row r="636">
@@ -5526,7 +5526,7 @@
         <v>45196</v>
       </c>
       <c r="B636" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.6158198662782371</v>
       </c>
     </row>
     <row r="637">
@@ -5534,7 +5534,7 @@
         <v>45197</v>
       </c>
       <c r="B637" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.6188662658158477</v>
       </c>
     </row>
     <row r="638">
@@ -5542,7 +5542,7 @@
         <v>45198</v>
       </c>
       <c r="B638" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.639293997141811</v>
       </c>
     </row>
     <row r="639">
@@ -5550,7 +5550,7 @@
         <v>45199</v>
       </c>
       <c r="B639" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.649530357964228</v>
       </c>
     </row>
     <row r="640">
@@ -5558,7 +5558,7 @@
         <v>45200</v>
       </c>
       <c r="B640" t="n">
-        <v>1</v>
+        <v>0.673627967772934</v>
       </c>
     </row>
     <row r="641">
@@ -5566,7 +5566,7 @@
         <v>45201</v>
       </c>
       <c r="B641" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.6711328343088453</v>
       </c>
     </row>
     <row r="642">
@@ -5574,7 +5574,7 @@
         <v>45202</v>
       </c>
       <c r="B642" t="n">
-        <v>0.929631637340838</v>
+        <v>0.6954146706837784</v>
       </c>
     </row>
     <row r="643">
@@ -5582,7 +5582,7 @@
         <v>45203</v>
       </c>
       <c r="B643" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.7339577351534859</v>
       </c>
     </row>
     <row r="644">
@@ -5590,7 +5590,7 @@
         <v>45204</v>
       </c>
       <c r="B644" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.7326215225675414</v>
       </c>
     </row>
     <row r="645">
@@ -5598,7 +5598,7 @@
         <v>45205</v>
       </c>
       <c r="B645" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.6506073005653586</v>
       </c>
     </row>
     <row r="646">
@@ -5606,7 +5606,7 @@
         <v>45206</v>
       </c>
       <c r="B646" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.4643058678402955</v>
       </c>
     </row>
     <row r="647">
@@ -5614,7 +5614,7 @@
         <v>45207</v>
       </c>
       <c r="B647" t="n">
-        <v>1</v>
+        <v>0.3664138759866885</v>
       </c>
     </row>
     <row r="648">
@@ -5622,7 +5622,7 @@
         <v>45208</v>
       </c>
       <c r="B648" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.3359906670938468</v>
       </c>
     </row>
     <row r="649">
@@ -5630,7 +5630,7 @@
         <v>45209</v>
       </c>
       <c r="B649" t="n">
-        <v>0.929631637340838</v>
+        <v>0.3213205195290121</v>
       </c>
     </row>
     <row r="650">
@@ -5638,7 +5638,7 @@
         <v>45210</v>
       </c>
       <c r="B650" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.3116613168661697</v>
       </c>
     </row>
     <row r="651">
@@ -5646,7 +5646,7 @@
         <v>45211</v>
       </c>
       <c r="B651" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.3108614759249796</v>
       </c>
     </row>
     <row r="652">
@@ -5654,7 +5654,7 @@
         <v>45212</v>
       </c>
       <c r="B652" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.3194100094101362</v>
       </c>
     </row>
     <row r="653">
@@ -5662,7 +5662,7 @@
         <v>45213</v>
       </c>
       <c r="B653" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.3383099022874189</v>
       </c>
     </row>
     <row r="654">
@@ -5670,7 +5670,7 @@
         <v>45214</v>
       </c>
       <c r="B654" t="n">
-        <v>1</v>
+        <v>0.3440915232703189</v>
       </c>
     </row>
     <row r="655">
@@ -5678,7 +5678,7 @@
         <v>45215</v>
       </c>
       <c r="B655" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.3281787749829336</v>
       </c>
     </row>
     <row r="656">
@@ -5686,7 +5686,7 @@
         <v>45216</v>
       </c>
       <c r="B656" t="n">
-        <v>0.929631637340838</v>
+        <v>0.3388245170808675</v>
       </c>
     </row>
     <row r="657">
@@ -5694,7 +5694,7 @@
         <v>45217</v>
       </c>
       <c r="B657" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.3484160778265711</v>
       </c>
     </row>
     <row r="658">
@@ -5702,7 +5702,7 @@
         <v>45218</v>
       </c>
       <c r="B658" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.3472861252789629</v>
       </c>
     </row>
     <row r="659">
@@ -5710,7 +5710,7 @@
         <v>45219</v>
       </c>
       <c r="B659" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.3257314838915412</v>
       </c>
     </row>
     <row r="660">
@@ -5718,7 +5718,7 @@
         <v>45220</v>
       </c>
       <c r="B660" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.3316136000530953</v>
       </c>
     </row>
     <row r="661">
@@ -5726,7 +5726,7 @@
         <v>45221</v>
       </c>
       <c r="B661" t="n">
-        <v>1</v>
+        <v>0.3316867288554688</v>
       </c>
     </row>
     <row r="662">
@@ -5734,7 +5734,7 @@
         <v>45222</v>
       </c>
       <c r="B662" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.3098459095035405</v>
       </c>
     </row>
     <row r="663">
@@ -5742,7 +5742,7 @@
         <v>45223</v>
       </c>
       <c r="B663" t="n">
-        <v>0.929631637340838</v>
+        <v>0.3233350075516051</v>
       </c>
     </row>
     <row r="664">
@@ -5750,7 +5750,7 @@
         <v>45224</v>
       </c>
       <c r="B664" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.3479791151906786</v>
       </c>
     </row>
     <row r="665">
@@ -5758,7 +5758,7 @@
         <v>45225</v>
       </c>
       <c r="B665" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.3711874715198369</v>
       </c>
     </row>
     <row r="666">
@@ -5766,7 +5766,7 @@
         <v>45226</v>
       </c>
       <c r="B666" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.3756587971443116</v>
       </c>
     </row>
     <row r="667">
@@ -5774,7 +5774,7 @@
         <v>45227</v>
       </c>
       <c r="B667" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.3724140611833837</v>
       </c>
     </row>
     <row r="668">
@@ -5782,7 +5782,7 @@
         <v>45228</v>
       </c>
       <c r="B668" t="n">
-        <v>1</v>
+        <v>0.3638716908241967</v>
       </c>
     </row>
     <row r="669">
@@ -5790,7 +5790,7 @@
         <v>45229</v>
       </c>
       <c r="B669" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.3195891425384642</v>
       </c>
     </row>
     <row r="670">
@@ -5798,7 +5798,7 @@
         <v>45230</v>
       </c>
       <c r="B670" t="n">
-        <v>0.929631637340838</v>
+        <v>0.3210721557089553</v>
       </c>
     </row>
     <row r="671">
@@ -5806,7 +5806,7 @@
         <v>45231</v>
       </c>
       <c r="B671" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.3244570229964777</v>
       </c>
     </row>
     <row r="672">
@@ -5814,7 +5814,7 @@
         <v>45232</v>
       </c>
       <c r="B672" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.3314554512696352</v>
       </c>
     </row>
     <row r="673">
@@ -5822,7 +5822,7 @@
         <v>45233</v>
       </c>
       <c r="B673" t="n">
-        <v>0.9400295103180806</v>
+        <v>0.3479012148655853</v>
       </c>
     </row>
     <row r="674">
@@ -5830,7 +5830,7 @@
         <v>45234</v>
       </c>
       <c r="B674" t="n">
-        <v>0.9841316268692997</v>
+        <v>0.3827644480227665</v>
       </c>
     </row>
     <row r="675">
@@ -5838,7 +5838,7 @@
         <v>45235</v>
       </c>
       <c r="B675" t="n">
-        <v>1</v>
+        <v>0.4050592337545698</v>
       </c>
     </row>
     <row r="676">
@@ -5846,7 +5846,7 @@
         <v>45236</v>
       </c>
       <c r="B676" t="n">
-        <v>0.9387201086627958</v>
+        <v>0.3727072092861389</v>
       </c>
     </row>
     <row r="677">
@@ -5854,7 +5854,7 @@
         <v>45237</v>
       </c>
       <c r="B677" t="n">
-        <v>0.929631637340838</v>
+        <v>0.3561763435297257</v>
       </c>
     </row>
     <row r="678">
@@ -5862,7 +5862,7 @@
         <v>45238</v>
       </c>
       <c r="B678" t="n">
-        <v>0.9355995815831549</v>
+        <v>0.3639327962171632</v>
       </c>
     </row>
     <row r="679">
@@ -5870,7 +5870,7 @@
         <v>45239</v>
       </c>
       <c r="B679" t="n">
-        <v>0.9414552152111704</v>
+        <v>0.3813092093872577</v>
       </c>
     </row>
     <row r="680">
@@ -5878,7 +5878,7 @@
         <v>45240</v>
       </c>
       <c r="B680" t="n">
-        <v>0.2860648224035063</v>
+        <v>0.1124273256418134</v>
       </c>
     </row>
   </sheetData>
